--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_20_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_20_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26754.81518126989</v>
+        <v>26052.67949689494</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>119.8236131656798</v>
+        <v>39.98997736157406</v>
       </c>
       <c r="D11" t="n">
         <v>176.0517191689128</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="H11" t="n">
         <v>155.5045423845799</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>11.74649515820835</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>18.50923699120978</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>149.1209360183648</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>170.6096462656429</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>48.31899191237995</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>79.79315073593983</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.83975863332243</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>166.5021842555528</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>20.40912598010603</v>
+        <v>20.409125980106</v>
       </c>
       <c r="U12" t="n">
-        <v>47.29170902643627</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="V12" t="n">
-        <v>198.698839673052</v>
+        <v>54.16926469765511</v>
       </c>
       <c r="W12" t="n">
-        <v>73.06366070914947</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="X12" t="n">
-        <v>27.14166275170734</v>
+        <v>27.14166275170732</v>
       </c>
       <c r="Y12" t="n">
-        <v>27.05137332553423</v>
+        <v>99.28422523929166</v>
       </c>
     </row>
     <row r="13">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.200657730167165</v>
+        <v>1.200657730167137</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>41.30999778875481</v>
+        <v>41.30999778875478</v>
       </c>
       <c r="T13" t="n">
-        <v>48.31511175255193</v>
+        <v>48.3151117525519</v>
       </c>
       <c r="U13" t="n">
         <v>107.6749517316489</v>
       </c>
       <c r="V13" t="n">
-        <v>73.50632087205787</v>
+        <v>73.50632087205784</v>
       </c>
       <c r="W13" t="n">
-        <v>107.8916758848209</v>
+        <v>107.8916758848208</v>
       </c>
       <c r="X13" t="n">
-        <v>47.07833293726702</v>
+        <v>47.07833293726699</v>
       </c>
       <c r="Y13" t="n">
-        <v>39.95333090032466</v>
+        <v>39.95333090032463</v>
       </c>
     </row>
     <row r="14">
@@ -1616,16 +1616,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>198.698839673052</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>95.74453639180612</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>155.5045423845799</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>11.74649515820838</v>
+        <v>3.95669077765045</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>18.50923699120981</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>42.18246213585462</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>72.67262509955683</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>149.1209360183648</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>170.6096462656429</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>198.6988396730519</v>
       </c>
     </row>
     <row r="15">
@@ -1686,13 +1686,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>50.2985400413124</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>109.5415757500918</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>79.79315073593983</v>
@@ -1734,13 +1734,13 @@
         <v>82.83975863332243</v>
       </c>
       <c r="S15" t="n">
-        <v>166.5021842555528</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>20.40912598010603</v>
       </c>
       <c r="U15" t="n">
-        <v>47.29170902643627</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="V15" t="n">
         <v>54.16926469765514</v>
@@ -1749,7 +1749,7 @@
         <v>73.06366070914947</v>
       </c>
       <c r="X15" t="n">
-        <v>110.4486538893923</v>
+        <v>27.14166275170734</v>
       </c>
       <c r="Y15" t="n">
         <v>27.05137332553423</v>
@@ -1844,7 +1844,7 @@
         <v>82.52790659228498</v>
       </c>
       <c r="C17" t="n">
-        <v>65.06695669981363</v>
+        <v>65.06695669981261</v>
       </c>
       <c r="D17" t="n">
         <v>54.47710654948736</v>
@@ -1923,25 +1923,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>85.72486912730642</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>79.47911919309804</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.5415757500918</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>79.79315073593983</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>198.698839673052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2056,16 +2056,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>198.698839673052</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>101.8109874335742</v>
+        <v>101.8109874335744</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.5415757500918</v>
       </c>
       <c r="I21" t="n">
         <v>79.79315073593983</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>21.02613631859587</v>
+        <v>82.83975863332243</v>
       </c>
       <c r="S21" t="n">
-        <v>166.5021842555528</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>142.5920517553727</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>198.698839673052</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2290,16 +2290,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="U22" t="n">
-        <v>198.698839673052</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>101.8109874335744</v>
       </c>
       <c r="W22" t="n">
-        <v>101.8109874335742</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2330,10 +2330,10 @@
         <v>106.6701106705158</v>
       </c>
       <c r="G23" t="n">
-        <v>114.5754854875702</v>
+        <v>114.5754854875701</v>
       </c>
       <c r="H23" t="n">
-        <v>33.9299297651545</v>
+        <v>33.92992976515447</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2394,19 +2394,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2445,25 +2445,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>113.3641557222376</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>175.013937984024</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="Y24" t="n">
-        <v>198.6988396730518</v>
+        <v>198.6988396730519</v>
       </c>
     </row>
     <row r="25">
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>66.58072672426806</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2527,16 +2527,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>66.68227928373038</v>
       </c>
       <c r="U25" t="n">
-        <v>198.6988396730518</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>101.8109874335745</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>233.7317514406241</v>
+        <v>233.731751440624</v>
       </c>
       <c r="C26" t="n">
         <v>216.270801548151</v>
@@ -2561,7 +2561,7 @@
         <v>205.6809513978264</v>
       </c>
       <c r="E26" t="n">
-        <v>232.9282798494053</v>
+        <v>232.9282798494052</v>
       </c>
       <c r="F26" t="n">
         <v>257.8739555188549</v>
@@ -2570,10 +2570,10 @@
         <v>265.7793303359093</v>
       </c>
       <c r="H26" t="n">
-        <v>185.1337746134936</v>
+        <v>185.1337746134935</v>
       </c>
       <c r="I26" t="n">
-        <v>41.375727387122</v>
+        <v>41.37572738712197</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>48.13846922012343</v>
+        <v>48.1384692201234</v>
       </c>
       <c r="T26" t="n">
-        <v>71.81169436476824</v>
+        <v>71.81169436476821</v>
       </c>
       <c r="U26" t="n">
         <v>102.3018573284704</v>
@@ -2621,7 +2621,7 @@
         <v>220.7290104556125</v>
       </c>
       <c r="Y26" t="n">
-        <v>237.2358484331971</v>
+        <v>237.235848433197</v>
       </c>
     </row>
     <row r="27">
@@ -2682,13 +2682,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>17.50009403269627</v>
+        <v>114.5584498251108</v>
       </c>
       <c r="T27" t="n">
-        <v>50.03835820901965</v>
+        <v>50.03835820901962</v>
       </c>
       <c r="U27" t="n">
-        <v>173.9792970477643</v>
+        <v>76.92094125534986</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>30.82988995908079</v>
+        <v>30.82988995908076</v>
       </c>
       <c r="C28" t="n">
-        <v>18.24473087577132</v>
+        <v>18.2447308757713</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>18.75504429595217</v>
+        <v>18.75504429595214</v>
       </c>
       <c r="H28" t="n">
-        <v>11.14598907387598</v>
+        <v>11.14598907387595</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>17.77678681877389</v>
+        <v>17.77678681877386</v>
       </c>
       <c r="S28" t="n">
-        <v>70.93923001766842</v>
+        <v>70.93923001766839</v>
       </c>
       <c r="T28" t="n">
-        <v>77.94434398146555</v>
+        <v>77.94434398146552</v>
       </c>
       <c r="U28" t="n">
-        <v>137.3041839605626</v>
+        <v>137.3041839605625</v>
       </c>
       <c r="V28" t="n">
         <v>103.1355531009715</v>
@@ -2776,10 +2776,10 @@
         <v>137.5209081137345</v>
       </c>
       <c r="X28" t="n">
-        <v>76.70756516618064</v>
+        <v>76.70756516618061</v>
       </c>
       <c r="Y28" t="n">
-        <v>69.58256312923828</v>
+        <v>69.58256312923825</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>233.7317514406241</v>
+        <v>233.731751440624</v>
       </c>
       <c r="C29" t="n">
         <v>216.270801548151</v>
@@ -2798,19 +2798,19 @@
         <v>205.6809513978264</v>
       </c>
       <c r="E29" t="n">
-        <v>232.9282798494053</v>
+        <v>232.9282798494052</v>
       </c>
       <c r="F29" t="n">
         <v>257.8739555188549</v>
       </c>
       <c r="G29" t="n">
-        <v>265.7793303359093</v>
+        <v>265.7793303359092</v>
       </c>
       <c r="H29" t="n">
-        <v>185.1337746134936</v>
+        <v>185.1337746134935</v>
       </c>
       <c r="I29" t="n">
-        <v>41.375727387122</v>
+        <v>41.37572738712195</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>48.13846922012343</v>
+        <v>48.13846922012338</v>
       </c>
       <c r="T29" t="n">
-        <v>71.81169436476824</v>
+        <v>71.81169436476819</v>
       </c>
       <c r="U29" t="n">
         <v>102.3018573284704</v>
       </c>
       <c r="V29" t="n">
-        <v>178.7501682472784</v>
+        <v>178.7501682472783</v>
       </c>
       <c r="W29" t="n">
-        <v>200.2388784945565</v>
+        <v>200.2388784945564</v>
       </c>
       <c r="X29" t="n">
         <v>220.7290104556125</v>
       </c>
       <c r="Y29" t="n">
-        <v>237.2358484331971</v>
+        <v>237.235848433197</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>17.53109342701077</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2883,13 +2883,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.5415757500918</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>79.79315073593983</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,10 +2919,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>110.6255719956378</v>
+        <v>17.50009403269621</v>
       </c>
       <c r="T30" t="n">
-        <v>50.03835820901965</v>
+        <v>114.7687021305119</v>
       </c>
       <c r="U30" t="n">
         <v>225.9230314782064</v>
@@ -2937,7 +2937,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>56.68060555444779</v>
       </c>
     </row>
     <row r="31">
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>30.82988995908079</v>
+        <v>30.82988995908073</v>
       </c>
       <c r="C31" t="n">
-        <v>18.24473087577132</v>
+        <v>18.24473087577127</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>18.75504429595217</v>
+        <v>18.75504429595211</v>
       </c>
       <c r="H31" t="n">
-        <v>11.14598907387598</v>
+        <v>11.14598907387593</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.77678681877389</v>
+        <v>17.77678681877383</v>
       </c>
       <c r="S31" t="n">
-        <v>70.93923001766842</v>
+        <v>70.93923001766836</v>
       </c>
       <c r="T31" t="n">
-        <v>77.94434398146555</v>
+        <v>77.94434398146549</v>
       </c>
       <c r="U31" t="n">
-        <v>137.3041839605626</v>
+        <v>137.3041839605625</v>
       </c>
       <c r="V31" t="n">
-        <v>103.1355531009715</v>
+        <v>103.1355531009714</v>
       </c>
       <c r="W31" t="n">
-        <v>137.5209081137345</v>
+        <v>137.5209081137344</v>
       </c>
       <c r="X31" t="n">
-        <v>76.70756516618064</v>
+        <v>76.70756516618059</v>
       </c>
       <c r="Y31" t="n">
-        <v>69.58256312923828</v>
+        <v>69.58256312923822</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>233.7317514406241</v>
+        <v>233.731751440624</v>
       </c>
       <c r="C32" t="n">
         <v>216.270801548151</v>
@@ -3035,19 +3035,19 @@
         <v>205.6809513978264</v>
       </c>
       <c r="E32" t="n">
-        <v>232.9282798494053</v>
+        <v>232.9282798494052</v>
       </c>
       <c r="F32" t="n">
         <v>257.8739555188549</v>
       </c>
       <c r="G32" t="n">
-        <v>265.7793303359093</v>
+        <v>265.7793303359092</v>
       </c>
       <c r="H32" t="n">
         <v>185.1337746134936</v>
       </c>
       <c r="I32" t="n">
-        <v>41.375727387122</v>
+        <v>41.37572738712197</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>48.13846922012343</v>
+        <v>48.1384692201234</v>
       </c>
       <c r="T32" t="n">
-        <v>71.81169436476824</v>
+        <v>71.81169436476821</v>
       </c>
       <c r="U32" t="n">
         <v>102.3018573284704</v>
@@ -3095,7 +3095,7 @@
         <v>220.7290104556125</v>
       </c>
       <c r="Y32" t="n">
-        <v>237.2358484331971</v>
+        <v>237.235848433197</v>
       </c>
     </row>
     <row r="33">
@@ -3111,7 +3111,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -3123,10 +3123,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>17.26520505647458</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>79.79315073593983</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>113.001425166893</v>
+        <v>17.50009403269624</v>
       </c>
       <c r="T33" t="n">
-        <v>199.0404484318762</v>
+        <v>50.03835820901962</v>
       </c>
       <c r="U33" t="n">
-        <v>76.92094125534989</v>
+        <v>76.92094125534986</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>30.82988995908079</v>
+        <v>30.82988995908076</v>
       </c>
       <c r="C34" t="n">
-        <v>18.24473087577132</v>
+        <v>18.2447308757713</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>18.75504429595217</v>
+        <v>18.75504429595214</v>
       </c>
       <c r="H34" t="n">
-        <v>11.14598907387598</v>
+        <v>11.14598907387595</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>17.77678681877389</v>
+        <v>17.77678681877386</v>
       </c>
       <c r="S34" t="n">
-        <v>70.93923001766842</v>
+        <v>70.93923001766839</v>
       </c>
       <c r="T34" t="n">
-        <v>77.94434398146555</v>
+        <v>77.94434398146552</v>
       </c>
       <c r="U34" t="n">
-        <v>137.3041839605626</v>
+        <v>137.3041839605625</v>
       </c>
       <c r="V34" t="n">
         <v>103.1355531009715</v>
@@ -3250,10 +3250,10 @@
         <v>137.5209081137345</v>
       </c>
       <c r="X34" t="n">
-        <v>76.70756516618064</v>
+        <v>76.70756516618061</v>
       </c>
       <c r="Y34" t="n">
-        <v>69.58256312923828</v>
+        <v>69.58256312923825</v>
       </c>
     </row>
     <row r="35">
@@ -3263,22 +3263,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>181.3012698717061</v>
+        <v>181.301269871706</v>
       </c>
       <c r="C35" t="n">
-        <v>163.8403199792331</v>
+        <v>163.840319979233</v>
       </c>
       <c r="D35" t="n">
-        <v>153.2504698289085</v>
+        <v>153.2504698289084</v>
       </c>
       <c r="E35" t="n">
-        <v>180.4977982804873</v>
+        <v>180.4977982804872</v>
       </c>
       <c r="F35" t="n">
-        <v>205.443473949937</v>
+        <v>205.4434739499369</v>
       </c>
       <c r="G35" t="n">
-        <v>213.3488487669913</v>
+        <v>213.3488487669912</v>
       </c>
       <c r="H35" t="n">
         <v>132.7032930445756</v>
@@ -3317,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>19.38121279585027</v>
+        <v>19.38121279585022</v>
       </c>
       <c r="U35" t="n">
-        <v>49.87137575955248</v>
+        <v>49.87137575955242</v>
       </c>
       <c r="V35" t="n">
         <v>126.3196866783604</v>
@@ -3329,7 +3329,7 @@
         <v>147.8083969256385</v>
       </c>
       <c r="X35" t="n">
-        <v>168.2985288866946</v>
+        <v>168.2985288866945</v>
       </c>
       <c r="Y35" t="n">
         <v>184.8053668642791</v>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3393,25 +3393,25 @@
         <v>82.83975863332243</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T36" t="n">
-        <v>199.0404484318762</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9230314782064</v>
+        <v>68.64163549699197</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>228.4085066532484</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>4.340413411702997</v>
+        <v>4.34041341170294</v>
       </c>
       <c r="Y36" t="n">
-        <v>4.250123985529882</v>
+        <v>4.250123985529825</v>
       </c>
     </row>
     <row r="37">
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.50874844875046</v>
+        <v>18.5087484487504</v>
       </c>
       <c r="T37" t="n">
-        <v>25.51386241254758</v>
+        <v>25.51386241254752</v>
       </c>
       <c r="U37" t="n">
-        <v>84.87370239164458</v>
+        <v>84.87370239164453</v>
       </c>
       <c r="V37" t="n">
-        <v>50.70507153205352</v>
+        <v>50.70507153205347</v>
       </c>
       <c r="W37" t="n">
-        <v>85.09042654481652</v>
+        <v>85.09042654481647</v>
       </c>
       <c r="X37" t="n">
-        <v>24.27708359726267</v>
+        <v>24.27708359726262</v>
       </c>
       <c r="Y37" t="n">
-        <v>17.15208156032031</v>
+        <v>17.15208156032025</v>
       </c>
     </row>
     <row r="38">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>181.3012698717061</v>
+        <v>181.301269871706</v>
       </c>
       <c r="C38" t="n">
-        <v>163.8403199792331</v>
+        <v>163.840319979233</v>
       </c>
       <c r="D38" t="n">
-        <v>153.2504698289085</v>
+        <v>153.2504698289084</v>
       </c>
       <c r="E38" t="n">
-        <v>180.4977982804873</v>
+        <v>180.4977982804872</v>
       </c>
       <c r="F38" t="n">
-        <v>205.443473949937</v>
+        <v>205.4434739499369</v>
       </c>
       <c r="G38" t="n">
-        <v>213.3488487669913</v>
+        <v>213.3488487669912</v>
       </c>
       <c r="H38" t="n">
         <v>132.7032930445756</v>
@@ -3554,10 +3554,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>19.38121279585027</v>
+        <v>19.38121279585022</v>
       </c>
       <c r="U38" t="n">
-        <v>49.87137575955248</v>
+        <v>49.87137575955242</v>
       </c>
       <c r="V38" t="n">
         <v>126.3196866783604</v>
@@ -3566,7 +3566,7 @@
         <v>147.8083969256385</v>
       </c>
       <c r="X38" t="n">
-        <v>168.2985288866946</v>
+        <v>168.2985288866945</v>
       </c>
       <c r="Y38" t="n">
         <v>184.8053668642791</v>
@@ -3579,28 +3579,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>38.35763340415497</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>109.5415757500918</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>79.79315073593983</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3636,16 +3636,16 @@
         <v>199.0404484318762</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9230314782064</v>
+        <v>152.2130102159042</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>31.36801535765073</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>4.340413411702997</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.50874844875046</v>
+        <v>18.5087484487504</v>
       </c>
       <c r="T40" t="n">
-        <v>25.51386241254758</v>
+        <v>25.51386241254752</v>
       </c>
       <c r="U40" t="n">
-        <v>84.87370239164458</v>
+        <v>84.87370239164453</v>
       </c>
       <c r="V40" t="n">
-        <v>50.70507153205352</v>
+        <v>50.70507153205347</v>
       </c>
       <c r="W40" t="n">
-        <v>85.09042654481652</v>
+        <v>85.09042654481647</v>
       </c>
       <c r="X40" t="n">
-        <v>24.27708359726267</v>
+        <v>24.27708359726262</v>
       </c>
       <c r="Y40" t="n">
-        <v>17.15208156032031</v>
+        <v>17.15208156032025</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>181.3012698717061</v>
+        <v>181.301269871706</v>
       </c>
       <c r="C41" t="n">
         <v>163.840319979233</v>
       </c>
       <c r="D41" t="n">
-        <v>153.2504698289085</v>
+        <v>153.2504698289084</v>
       </c>
       <c r="E41" t="n">
-        <v>180.4977982804873</v>
+        <v>180.4977982804872</v>
       </c>
       <c r="F41" t="n">
         <v>205.4434739499369</v>
@@ -3791,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>19.38121279585025</v>
+        <v>19.38121279585022</v>
       </c>
       <c r="U41" t="n">
-        <v>49.87137575955244</v>
+        <v>49.87137575955241</v>
       </c>
       <c r="V41" t="n">
         <v>126.3196866783604</v>
@@ -3831,13 +3831,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>134.1875309697256</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.5415757500918</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>79.79315073593983</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.83975863332243</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9230314782064</v>
+        <v>116.5510065940926</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3882,7 +3882,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>4.340413411702968</v>
+        <v>4.34041341170294</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.50874844875043</v>
+        <v>18.5087484487504</v>
       </c>
       <c r="T43" t="n">
-        <v>25.51386241254755</v>
+        <v>25.51386241254752</v>
       </c>
       <c r="U43" t="n">
-        <v>84.87370239164456</v>
+        <v>84.87370239164453</v>
       </c>
       <c r="V43" t="n">
-        <v>50.70507153205349</v>
+        <v>50.70507153205347</v>
       </c>
       <c r="W43" t="n">
-        <v>85.09042654481649</v>
+        <v>85.09042654481647</v>
       </c>
       <c r="X43" t="n">
-        <v>24.27708359726265</v>
+        <v>24.27708359726262</v>
       </c>
       <c r="Y43" t="n">
-        <v>17.15208156032028</v>
+        <v>17.15208156032025</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>181.3012698717061</v>
+        <v>181.301269871706</v>
       </c>
       <c r="C44" t="n">
         <v>163.840319979233</v>
       </c>
       <c r="D44" t="n">
-        <v>153.2504698289085</v>
+        <v>153.2504698289084</v>
       </c>
       <c r="E44" t="n">
-        <v>180.4977982804873</v>
+        <v>180.4977982804872</v>
       </c>
       <c r="F44" t="n">
         <v>205.4434739499369</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>19.38121279585025</v>
+        <v>19.38121279585022</v>
       </c>
       <c r="U44" t="n">
-        <v>49.87137575955244</v>
+        <v>49.87137575955241</v>
       </c>
       <c r="V44" t="n">
         <v>126.3196866783604</v>
       </c>
       <c r="W44" t="n">
-        <v>147.8083969256391</v>
+        <v>147.8083969256385</v>
       </c>
       <c r="X44" t="n">
         <v>168.2985288866945</v>
       </c>
       <c r="Y44" t="n">
-        <v>184.8053668642791</v>
+        <v>184.80536686428</v>
       </c>
     </row>
     <row r="45">
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -4065,7 +4065,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>79.79315073593983</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T45" t="n">
-        <v>160.6639302046574</v>
+        <v>199.0404484318762</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9230314782064</v>
+        <v>135.4236485042946</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.50874844875043</v>
+        <v>18.5087484487504</v>
       </c>
       <c r="T46" t="n">
-        <v>25.51386241254755</v>
+        <v>25.51386241254752</v>
       </c>
       <c r="U46" t="n">
-        <v>84.87370239164456</v>
+        <v>84.87370239164453</v>
       </c>
       <c r="V46" t="n">
-        <v>50.70507153205349</v>
+        <v>50.70507153205347</v>
       </c>
       <c r="W46" t="n">
-        <v>85.09042654481649</v>
+        <v>85.09042654481647</v>
       </c>
       <c r="X46" t="n">
-        <v>24.27708359726265</v>
+        <v>24.27708359726262</v>
       </c>
       <c r="Y46" t="n">
-        <v>17.15208156032028</v>
+        <v>17.15208156032025</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>471.8351745669478</v>
+        <v>603.7661836852856</v>
       </c>
       <c r="C11" t="n">
-        <v>350.8012218743419</v>
+        <v>563.3722671584429</v>
       </c>
       <c r="D11" t="n">
-        <v>172.9712025118036</v>
+        <v>385.5422477959049</v>
       </c>
       <c r="E11" t="n">
-        <v>172.9712025118036</v>
+        <v>385.5422477959049</v>
       </c>
       <c r="F11" t="n">
-        <v>172.9712025118036</v>
+        <v>385.5422477959049</v>
       </c>
       <c r="G11" t="n">
-        <v>172.9712025118036</v>
+        <v>184.8363491362566</v>
       </c>
       <c r="H11" t="n">
-        <v>15.89590717384416</v>
+        <v>27.76105379829703</v>
       </c>
       <c r="I11" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="J11" t="n">
-        <v>15.89590717384416</v>
+        <v>47.86977448817005</v>
       </c>
       <c r="K11" t="n">
-        <v>184.5612501556401</v>
+        <v>216.535117469966</v>
       </c>
       <c r="L11" t="n">
-        <v>381.2731014319616</v>
+        <v>413.2469687462873</v>
       </c>
       <c r="M11" t="n">
-        <v>577.9849527082831</v>
+        <v>413.2469687462873</v>
       </c>
       <c r="N11" t="n">
-        <v>577.9849527082831</v>
+        <v>552.2408968308815</v>
       </c>
       <c r="O11" t="n">
-        <v>630.9189337277775</v>
+        <v>748.9527481072029</v>
       </c>
       <c r="P11" t="n">
-        <v>794.7953586922081</v>
+        <v>748.9527481072029</v>
       </c>
       <c r="Q11" t="n">
-        <v>794.7953586922081</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="R11" t="n">
-        <v>794.7953586922081</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="S11" t="n">
-        <v>794.7953586922081</v>
+        <v>776.0991597111874</v>
       </c>
       <c r="T11" t="n">
-        <v>794.7953586922081</v>
+        <v>776.0991597111874</v>
       </c>
       <c r="U11" t="n">
-        <v>794.7953586922081</v>
+        <v>776.0991597111874</v>
       </c>
       <c r="V11" t="n">
-        <v>644.1681505928497</v>
+        <v>776.0991597111874</v>
       </c>
       <c r="W11" t="n">
-        <v>471.8351745669478</v>
+        <v>603.7661836852856</v>
       </c>
       <c r="X11" t="n">
-        <v>471.8351745669478</v>
+        <v>603.7661836852856</v>
       </c>
       <c r="Y11" t="n">
-        <v>471.8351745669478</v>
+        <v>603.7661836852856</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>145.3021118691167</v>
+        <v>190.3489364549712</v>
       </c>
       <c r="C12" t="n">
-        <v>145.3021118691167</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="D12" t="n">
-        <v>145.3021118691167</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="E12" t="n">
-        <v>145.3021118691167</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="F12" t="n">
-        <v>96.49504933135916</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="G12" t="n">
-        <v>96.49504933135916</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="H12" t="n">
-        <v>96.49504933135916</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="I12" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="J12" t="n">
-        <v>15.89590717384416</v>
+        <v>41.24594382033391</v>
       </c>
       <c r="K12" t="n">
-        <v>15.89590717384416</v>
+        <v>211.1940372584257</v>
       </c>
       <c r="L12" t="n">
-        <v>204.6598048632435</v>
+        <v>407.9058885347471</v>
       </c>
       <c r="M12" t="n">
-        <v>204.6598048632435</v>
+        <v>598.0835074158861</v>
       </c>
       <c r="N12" t="n">
-        <v>401.371656139565</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="O12" t="n">
-        <v>598.0835074158865</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="P12" t="n">
-        <v>794.7953586922081</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="Q12" t="n">
-        <v>794.7953586922081</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="R12" t="n">
-        <v>711.1188348201653</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="S12" t="n">
-        <v>542.9348103196069</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="T12" t="n">
-        <v>522.319531551823</v>
+        <v>774.1800799244236</v>
       </c>
       <c r="U12" t="n">
-        <v>474.5501284948167</v>
+        <v>573.4741812647752</v>
       </c>
       <c r="V12" t="n">
-        <v>273.8442298351682</v>
+        <v>518.7577522772448</v>
       </c>
       <c r="W12" t="n">
-        <v>200.0425523511789</v>
+        <v>318.0518536175964</v>
       </c>
       <c r="X12" t="n">
-        <v>172.6267313898583</v>
+        <v>290.6360326562759</v>
       </c>
       <c r="Y12" t="n">
-        <v>145.3021118691167</v>
+        <v>190.3489364549712</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="C13" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="D13" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="E13" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="F13" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="G13" t="n">
-        <v>15.89590717384416</v>
+        <v>26.66135322747601</v>
       </c>
       <c r="H13" t="n">
-        <v>15.89590717384416</v>
+        <v>44.95976395096331</v>
       </c>
       <c r="I13" t="n">
-        <v>15.89590717384416</v>
+        <v>44.95976395096331</v>
       </c>
       <c r="J13" t="n">
-        <v>15.89590717384416</v>
+        <v>73.06738557631081</v>
       </c>
       <c r="K13" t="n">
-        <v>67.61337794214418</v>
+        <v>77.91742212523909</v>
       </c>
       <c r="L13" t="n">
-        <v>129.346189518594</v>
+        <v>139.6502337016889</v>
       </c>
       <c r="M13" t="n">
-        <v>326.0580407949155</v>
+        <v>215.1279510246882</v>
       </c>
       <c r="N13" t="n">
-        <v>405.1756831228201</v>
+        <v>294.2455933525928</v>
       </c>
       <c r="O13" t="n">
-        <v>462.2373358596346</v>
+        <v>351.3072460894073</v>
       </c>
       <c r="P13" t="n">
-        <v>487.5427552522212</v>
+        <v>376.6126654819939</v>
       </c>
       <c r="Q13" t="n">
-        <v>487.5427552522212</v>
+        <v>487.542755252221</v>
       </c>
       <c r="R13" t="n">
-        <v>487.5427552522212</v>
+        <v>487.542755252221</v>
       </c>
       <c r="S13" t="n">
-        <v>445.8154847585295</v>
+        <v>445.8154847585293</v>
       </c>
       <c r="T13" t="n">
-        <v>397.0123415741336</v>
+        <v>397.0123415741334</v>
       </c>
       <c r="U13" t="n">
-        <v>288.2497640674175</v>
+        <v>288.2497640674173</v>
       </c>
       <c r="V13" t="n">
-        <v>214.0009551057429</v>
+        <v>214.0009551057427</v>
       </c>
       <c r="W13" t="n">
-        <v>105.0194643129945</v>
+        <v>105.0194643129944</v>
       </c>
       <c r="X13" t="n">
-        <v>57.46559265918944</v>
+        <v>57.46559265918937</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.1086927598716</v>
+        <v>17.10869275987156</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>660.0839200794593</v>
+        <v>197.7225838875443</v>
       </c>
       <c r="C14" t="n">
-        <v>660.0839200794593</v>
+        <v>197.7225838875443</v>
       </c>
       <c r="D14" t="n">
-        <v>482.2539007169211</v>
+        <v>19.89256452500622</v>
       </c>
       <c r="E14" t="n">
-        <v>482.2539007169211</v>
+        <v>19.89256452500622</v>
       </c>
       <c r="F14" t="n">
-        <v>281.5480020572726</v>
+        <v>19.89256452500622</v>
       </c>
       <c r="G14" t="n">
-        <v>184.8363491362563</v>
+        <v>19.89256452500622</v>
       </c>
       <c r="H14" t="n">
-        <v>27.76105379829711</v>
+        <v>19.89256452500622</v>
       </c>
       <c r="I14" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="J14" t="n">
-        <v>15.89590717384416</v>
+        <v>47.86977448817005</v>
       </c>
       <c r="K14" t="n">
-        <v>15.89590717384416</v>
+        <v>216.535117469966</v>
       </c>
       <c r="L14" t="n">
-        <v>212.6077584501657</v>
+        <v>216.535117469966</v>
       </c>
       <c r="M14" t="n">
-        <v>409.3196097264872</v>
+        <v>216.535117469966</v>
       </c>
       <c r="N14" t="n">
-        <v>606.0314610028088</v>
+        <v>388.3644718664509</v>
       </c>
       <c r="O14" t="n">
-        <v>794.7953586922081</v>
+        <v>585.0763231427723</v>
       </c>
       <c r="P14" t="n">
-        <v>794.7953586922081</v>
+        <v>748.9527481072029</v>
       </c>
       <c r="Q14" t="n">
-        <v>794.7953586922081</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="R14" t="n">
-        <v>794.7953586922081</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="S14" t="n">
-        <v>776.099159711188</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="T14" t="n">
-        <v>733.4906120992136</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="U14" t="n">
-        <v>660.0839200794593</v>
+        <v>721.388666672453</v>
       </c>
       <c r="V14" t="n">
-        <v>660.0839200794593</v>
+        <v>570.7614585730946</v>
       </c>
       <c r="W14" t="n">
-        <v>660.0839200794593</v>
+        <v>398.4284825471927</v>
       </c>
       <c r="X14" t="n">
-        <v>660.0839200794593</v>
+        <v>398.4284825471927</v>
       </c>
       <c r="Y14" t="n">
-        <v>660.0839200794593</v>
+        <v>197.7225838875443</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>207.1431056445832</v>
+        <v>306.5391104391504</v>
       </c>
       <c r="C15" t="n">
-        <v>207.1431056445832</v>
+        <v>255.7325043368147</v>
       </c>
       <c r="D15" t="n">
-        <v>207.1431056445832</v>
+        <v>255.7325043368147</v>
       </c>
       <c r="E15" t="n">
-        <v>207.1431056445832</v>
+        <v>96.49504933135914</v>
       </c>
       <c r="F15" t="n">
-        <v>207.1431056445832</v>
+        <v>96.49504933135914</v>
       </c>
       <c r="G15" t="n">
-        <v>207.1431056445832</v>
+        <v>96.49504933135914</v>
       </c>
       <c r="H15" t="n">
-        <v>96.49504933135916</v>
+        <v>96.49504933135914</v>
       </c>
       <c r="I15" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="J15" t="n">
-        <v>15.89590717384416</v>
+        <v>41.24594382033391</v>
       </c>
       <c r="K15" t="n">
-        <v>15.89590717384416</v>
+        <v>41.24594382033391</v>
       </c>
       <c r="L15" t="n">
-        <v>212.6077584501657</v>
+        <v>237.9577950966552</v>
       </c>
       <c r="M15" t="n">
-        <v>212.6077584501657</v>
+        <v>401.3716561395647</v>
       </c>
       <c r="N15" t="n">
-        <v>401.371656139565</v>
+        <v>598.0835074158861</v>
       </c>
       <c r="O15" t="n">
-        <v>598.0835074158865</v>
+        <v>598.0835074158861</v>
       </c>
       <c r="P15" t="n">
-        <v>794.7953586922081</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="Q15" t="n">
-        <v>794.7953586922081</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="R15" t="n">
-        <v>711.1188348201653</v>
+        <v>711.1188348201646</v>
       </c>
       <c r="S15" t="n">
-        <v>542.9348103196069</v>
+        <v>711.1188348201646</v>
       </c>
       <c r="T15" t="n">
-        <v>522.319531551823</v>
+        <v>690.5035560523808</v>
       </c>
       <c r="U15" t="n">
-        <v>474.5501284948167</v>
+        <v>489.7976573927324</v>
       </c>
       <c r="V15" t="n">
-        <v>419.8336995072863</v>
+        <v>435.081228405202</v>
       </c>
       <c r="W15" t="n">
-        <v>346.0320220232969</v>
+        <v>361.2795509212126</v>
       </c>
       <c r="X15" t="n">
-        <v>234.4677251653249</v>
+        <v>333.8637299598921</v>
       </c>
       <c r="Y15" t="n">
-        <v>207.1431056445832</v>
+        <v>306.5391104391504</v>
       </c>
     </row>
     <row r="16">
@@ -5410,61 +5410,61 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="C16" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="D16" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="E16" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="F16" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="G16" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="H16" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="I16" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="J16" t="n">
-        <v>116.6828299472187</v>
+        <v>73.06738557631098</v>
       </c>
       <c r="K16" t="n">
-        <v>121.5328664961469</v>
+        <v>77.91742212523926</v>
       </c>
       <c r="L16" t="n">
-        <v>250.5803234719162</v>
+        <v>139.650233701689</v>
       </c>
       <c r="M16" t="n">
-        <v>326.0580407949155</v>
+        <v>215.1279510246883</v>
       </c>
       <c r="N16" t="n">
-        <v>405.1756831228201</v>
+        <v>294.245593352593</v>
       </c>
       <c r="O16" t="n">
-        <v>462.2373358596346</v>
+        <v>351.3072460894074</v>
       </c>
       <c r="P16" t="n">
-        <v>487.5427552522212</v>
+        <v>376.6126654819941</v>
       </c>
       <c r="Q16" t="n">
-        <v>487.5427552522212</v>
+        <v>487.5427552522211</v>
       </c>
       <c r="R16" t="n">
-        <v>487.5427552522212</v>
+        <v>487.5427552522211</v>
       </c>
       <c r="S16" t="n">
-        <v>445.8154847585295</v>
+        <v>445.8154847585294</v>
       </c>
       <c r="T16" t="n">
-        <v>397.0123415741336</v>
+        <v>397.0123415741335</v>
       </c>
       <c r="U16" t="n">
         <v>288.2497640674175</v>
@@ -5476,10 +5476,10 @@
         <v>105.0194643129945</v>
       </c>
       <c r="X16" t="n">
-        <v>57.46559265918944</v>
+        <v>57.46559265918943</v>
       </c>
       <c r="Y16" t="n">
-        <v>17.1086927598716</v>
+        <v>17.10869275987159</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>476.9504770461745</v>
+        <v>476.950477046174</v>
       </c>
       <c r="C17" t="n">
-        <v>411.2262783594944</v>
+        <v>411.2262783594947</v>
       </c>
       <c r="D17" t="n">
-        <v>356.1988980064768</v>
+        <v>356.1988980064771</v>
       </c>
       <c r="E17" t="n">
-        <v>273.6489636619655</v>
+        <v>273.6489636619658</v>
       </c>
       <c r="F17" t="n">
-        <v>165.9013771260908</v>
+        <v>165.9013771260912</v>
       </c>
       <c r="G17" t="n">
-        <v>50.16856350228302</v>
+        <v>50.16856350228301</v>
       </c>
       <c r="H17" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="I17" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="J17" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="K17" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="L17" t="n">
-        <v>212.6077584501657</v>
+        <v>212.6077584501655</v>
       </c>
       <c r="M17" t="n">
-        <v>409.3196097264872</v>
+        <v>212.6077584501655</v>
       </c>
       <c r="N17" t="n">
-        <v>606.0314610028088</v>
+        <v>388.3644718664509</v>
       </c>
       <c r="O17" t="n">
-        <v>794.7953586922081</v>
+        <v>585.0763231427723</v>
       </c>
       <c r="P17" t="n">
-        <v>794.7953586922081</v>
+        <v>748.9527481072029</v>
       </c>
       <c r="Q17" t="n">
-        <v>794.7953586922081</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="R17" t="n">
-        <v>794.7953586922081</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="S17" t="n">
-        <v>794.7953586922081</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="T17" t="n">
-        <v>794.7953586922081</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="U17" t="n">
-        <v>794.7953586922081</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="V17" t="n">
-        <v>766.9707896023702</v>
+        <v>766.9707896023697</v>
       </c>
       <c r="W17" t="n">
-        <v>717.4404525859891</v>
+        <v>717.4404525859885</v>
       </c>
       <c r="X17" t="n">
-        <v>647.2130125786421</v>
+        <v>647.2130125786416</v>
       </c>
       <c r="Y17" t="n">
-        <v>560.3119988565632</v>
+        <v>560.3119988565628</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>425.8741230124916</v>
+        <v>425.874123012491</v>
       </c>
       <c r="C18" t="n">
-        <v>251.4210937313646</v>
+        <v>425.874123012491</v>
       </c>
       <c r="D18" t="n">
-        <v>102.4866840701133</v>
+        <v>425.874123012491</v>
       </c>
       <c r="E18" t="n">
-        <v>15.89590717384416</v>
+        <v>425.874123012491</v>
       </c>
       <c r="F18" t="n">
-        <v>15.89590717384416</v>
+        <v>345.5921844336041</v>
       </c>
       <c r="G18" t="n">
-        <v>15.89590717384416</v>
+        <v>207.1431056445832</v>
       </c>
       <c r="H18" t="n">
-        <v>15.89590717384416</v>
+        <v>96.49504933135914</v>
       </c>
       <c r="I18" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="J18" t="n">
-        <v>15.89590717384416</v>
+        <v>41.24594382033391</v>
       </c>
       <c r="K18" t="n">
-        <v>15.89590717384416</v>
+        <v>211.1940372584257</v>
       </c>
       <c r="L18" t="n">
-        <v>15.89590717384416</v>
+        <v>211.1940372584257</v>
       </c>
       <c r="M18" t="n">
-        <v>212.6077584501657</v>
+        <v>407.9058885347471</v>
       </c>
       <c r="N18" t="n">
-        <v>409.3196097264872</v>
+        <v>598.0835074158861</v>
       </c>
       <c r="O18" t="n">
-        <v>606.0314610028088</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="P18" t="n">
-        <v>794.7953586922081</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="Q18" t="n">
-        <v>794.7953586922081</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="R18" t="n">
-        <v>794.7953586922081</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="S18" t="n">
-        <v>794.7953586922081</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="T18" t="n">
-        <v>794.7953586922081</v>
+        <v>594.089460032559</v>
       </c>
       <c r="U18" t="n">
-        <v>794.7953586922081</v>
+        <v>594.089460032559</v>
       </c>
       <c r="V18" t="n">
-        <v>794.7953586922081</v>
+        <v>594.089460032559</v>
       </c>
       <c r="W18" t="n">
-        <v>794.7953586922081</v>
+        <v>594.089460032559</v>
       </c>
       <c r="X18" t="n">
-        <v>794.7953586922081</v>
+        <v>594.089460032559</v>
       </c>
       <c r="Y18" t="n">
-        <v>594.0894600325596</v>
+        <v>594.089460032559</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="C19" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="D19" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="E19" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="F19" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="G19" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="H19" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="I19" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="J19" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="K19" t="n">
-        <v>20.74594372277244</v>
+        <v>20.74594372277243</v>
       </c>
       <c r="L19" t="n">
         <v>82.47875529922223</v>
@@ -5704,19 +5704,19 @@
         <v>319.4411870795273</v>
       </c>
       <c r="U19" t="n">
-        <v>118.7352884198787</v>
+        <v>319.4411870795273</v>
       </c>
       <c r="V19" t="n">
-        <v>118.7352884198787</v>
+        <v>319.4411870795273</v>
       </c>
       <c r="W19" t="n">
-        <v>15.89590717384416</v>
+        <v>216.6018058334925</v>
       </c>
       <c r="X19" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="Y19" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>476.9504770461744</v>
+        <v>476.9504770461739</v>
       </c>
       <c r="C20" t="n">
-        <v>411.2262783594957</v>
+        <v>411.2262783594951</v>
       </c>
       <c r="D20" t="n">
-        <v>356.1988980064781</v>
+        <v>356.1988980064775</v>
       </c>
       <c r="E20" t="n">
-        <v>273.6489636619668</v>
+        <v>273.6489636619662</v>
       </c>
       <c r="F20" t="n">
-        <v>165.9013771260922</v>
+        <v>165.9013771260916</v>
       </c>
       <c r="G20" t="n">
-        <v>50.16856350228305</v>
+        <v>50.16856350228304</v>
       </c>
       <c r="H20" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="I20" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="J20" t="n">
-        <v>15.89590717384416</v>
+        <v>47.86977448817005</v>
       </c>
       <c r="K20" t="n">
-        <v>15.89590717384416</v>
+        <v>47.86977448817005</v>
       </c>
       <c r="L20" t="n">
-        <v>212.6077584501657</v>
+        <v>204.6598048632434</v>
       </c>
       <c r="M20" t="n">
-        <v>409.3196097264872</v>
+        <v>401.3716561395647</v>
       </c>
       <c r="N20" t="n">
-        <v>606.0314610028088</v>
+        <v>598.0835074158861</v>
       </c>
       <c r="O20" t="n">
-        <v>794.7953586922081</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="P20" t="n">
-        <v>794.7953586922081</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="Q20" t="n">
-        <v>794.7953586922081</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="R20" t="n">
-        <v>794.7953586922081</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="S20" t="n">
-        <v>794.7953586922081</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="T20" t="n">
-        <v>794.7953586922081</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="U20" t="n">
-        <v>794.7953586922081</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="V20" t="n">
-        <v>766.9707896023704</v>
+        <v>766.9707896023697</v>
       </c>
       <c r="W20" t="n">
-        <v>717.4404525859891</v>
+        <v>717.4404525859884</v>
       </c>
       <c r="X20" t="n">
-        <v>647.2130125786421</v>
+        <v>647.2130125786415</v>
       </c>
       <c r="Y20" t="n">
-        <v>560.3119988565633</v>
+        <v>560.3119988565627</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>404.6669139980659</v>
+        <v>366.3805606500387</v>
       </c>
       <c r="C21" t="n">
-        <v>404.6669139980659</v>
+        <v>366.3805606500387</v>
       </c>
       <c r="D21" t="n">
-        <v>255.7325043368147</v>
+        <v>366.3805606500387</v>
       </c>
       <c r="E21" t="n">
-        <v>96.49504933135916</v>
+        <v>207.1431056445832</v>
       </c>
       <c r="F21" t="n">
-        <v>96.49504933135916</v>
+        <v>207.1431056445832</v>
       </c>
       <c r="G21" t="n">
-        <v>96.49504933135916</v>
+        <v>207.1431056445832</v>
       </c>
       <c r="H21" t="n">
-        <v>96.49504933135916</v>
+        <v>96.49504933135914</v>
       </c>
       <c r="I21" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="J21" t="n">
-        <v>41.24594382033393</v>
+        <v>41.24594382033391</v>
       </c>
       <c r="K21" t="n">
-        <v>211.1940372584258</v>
+        <v>211.1940372584257</v>
       </c>
       <c r="L21" t="n">
-        <v>407.9058885347473</v>
+        <v>407.9058885347471</v>
       </c>
       <c r="M21" t="n">
-        <v>407.9058885347473</v>
+        <v>604.6177398110684</v>
       </c>
       <c r="N21" t="n">
-        <v>407.9058885347473</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="O21" t="n">
-        <v>493.4399366663912</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="P21" t="n">
-        <v>690.1517879427128</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="Q21" t="n">
-        <v>794.7953586922081</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="R21" t="n">
-        <v>773.5568371582729</v>
+        <v>711.1188348201646</v>
       </c>
       <c r="S21" t="n">
-        <v>605.3728126577145</v>
+        <v>711.1188348201646</v>
       </c>
       <c r="T21" t="n">
-        <v>605.3728126577145</v>
+        <v>510.4129361605162</v>
       </c>
       <c r="U21" t="n">
-        <v>605.3728126577145</v>
+        <v>366.3805606500387</v>
       </c>
       <c r="V21" t="n">
-        <v>605.3728126577145</v>
+        <v>366.3805606500387</v>
       </c>
       <c r="W21" t="n">
-        <v>605.3728126577145</v>
+        <v>366.3805606500387</v>
       </c>
       <c r="X21" t="n">
-        <v>404.6669139980659</v>
+        <v>366.3805606500387</v>
       </c>
       <c r="Y21" t="n">
-        <v>404.6669139980659</v>
+        <v>366.3805606500387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="C22" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="D22" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="E22" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="F22" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="G22" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="H22" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="I22" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="J22" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="K22" t="n">
-        <v>20.74594372277244</v>
+        <v>20.74594372277243</v>
       </c>
       <c r="L22" t="n">
         <v>82.47875529922223</v>
@@ -5938,22 +5938,22 @@
         <v>319.4411870795273</v>
       </c>
       <c r="T22" t="n">
-        <v>319.4411870795273</v>
+        <v>118.7352884198789</v>
       </c>
       <c r="U22" t="n">
-        <v>118.7352884198787</v>
+        <v>118.7352884198789</v>
       </c>
       <c r="V22" t="n">
-        <v>118.7352884198787</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="W22" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="X22" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="Y22" t="n">
-        <v>15.89590717384416</v>
+        <v>15.89590717384415</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>476.9504770461735</v>
+        <v>476.9504770461734</v>
       </c>
       <c r="C23" t="n">
-        <v>411.2262783594948</v>
+        <v>411.2262783594947</v>
       </c>
       <c r="D23" t="n">
         <v>356.1988980064772</v>
@@ -5978,58 +5978,58 @@
         <v>165.9013771260913</v>
       </c>
       <c r="G23" t="n">
-        <v>50.16856350228304</v>
+        <v>50.16856350228301</v>
       </c>
       <c r="H23" t="n">
-        <v>15.89590717384414</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="I23" t="n">
-        <v>15.89590717384414</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="J23" t="n">
-        <v>47.86977448817004</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="K23" t="n">
-        <v>216.535117469966</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="L23" t="n">
-        <v>413.2469687462873</v>
+        <v>212.6077584501655</v>
       </c>
       <c r="M23" t="n">
-        <v>609.9588200226085</v>
+        <v>237.4952311751341</v>
       </c>
       <c r="N23" t="n">
-        <v>609.9588200226085</v>
+        <v>434.2070824514554</v>
       </c>
       <c r="O23" t="n">
-        <v>794.7953586922072</v>
+        <v>630.9189337277768</v>
       </c>
       <c r="P23" t="n">
-        <v>794.7953586922072</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="Q23" t="n">
-        <v>794.7953586922072</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="R23" t="n">
-        <v>794.7953586922072</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="S23" t="n">
-        <v>794.7953586922072</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="T23" t="n">
-        <v>794.7953586922072</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="U23" t="n">
-        <v>794.7953586922072</v>
+        <v>794.7953586922069</v>
       </c>
       <c r="V23" t="n">
-        <v>766.9707896023693</v>
+        <v>766.9707896023692</v>
       </c>
       <c r="W23" t="n">
-        <v>717.4404525859882</v>
+        <v>717.4404525859879</v>
       </c>
       <c r="X23" t="n">
-        <v>647.2130125786412</v>
+        <v>647.213012578641</v>
       </c>
       <c r="Y23" t="n">
         <v>560.3119988565622</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>311.3648748082104</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="C24" t="n">
-        <v>311.3648748082104</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="D24" t="n">
-        <v>162.4304651469592</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="E24" t="n">
-        <v>162.4304651469592</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="F24" t="n">
-        <v>15.89590717384414</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="G24" t="n">
-        <v>15.89590717384414</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="H24" t="n">
-        <v>15.89590717384414</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="I24" t="n">
-        <v>15.89590717384414</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="J24" t="n">
-        <v>15.89590717384414</v>
+        <v>41.24594382033391</v>
       </c>
       <c r="K24" t="n">
-        <v>15.89590717384414</v>
+        <v>211.1940372584257</v>
       </c>
       <c r="L24" t="n">
-        <v>204.6598048632433</v>
+        <v>407.9058885347471</v>
       </c>
       <c r="M24" t="n">
-        <v>401.3716561395645</v>
+        <v>604.6177398110684</v>
       </c>
       <c r="N24" t="n">
-        <v>598.0835074158858</v>
+        <v>604.6177398110684</v>
       </c>
       <c r="O24" t="n">
-        <v>794.7953586922072</v>
+        <v>690.1517879427121</v>
       </c>
       <c r="P24" t="n">
-        <v>794.7953586922072</v>
+        <v>690.1517879427121</v>
       </c>
       <c r="Q24" t="n">
-        <v>794.7953586922072</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="R24" t="n">
-        <v>794.7953586922072</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="S24" t="n">
-        <v>680.2861104879267</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="T24" t="n">
-        <v>680.2861104879267</v>
+        <v>794.7953586922074</v>
       </c>
       <c r="U24" t="n">
-        <v>680.2861104879267</v>
+        <v>618.0136031527892</v>
       </c>
       <c r="V24" t="n">
-        <v>680.2861104879267</v>
+        <v>618.0136031527892</v>
       </c>
       <c r="W24" t="n">
-        <v>680.2861104879267</v>
+        <v>417.3077044931408</v>
       </c>
       <c r="X24" t="n">
-        <v>680.2861104879267</v>
+        <v>216.6018058334925</v>
       </c>
       <c r="Y24" t="n">
-        <v>479.5802118282784</v>
+        <v>15.89590717384415</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.89590717384414</v>
+        <v>184.832090101751</v>
       </c>
       <c r="C25" t="n">
-        <v>15.89590717384414</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="D25" t="n">
-        <v>15.89590717384414</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="E25" t="n">
-        <v>15.89590717384414</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="F25" t="n">
-        <v>15.89590717384414</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="G25" t="n">
-        <v>15.89590717384414</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="H25" t="n">
-        <v>15.89590717384414</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="I25" t="n">
-        <v>15.89590717384414</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="J25" t="n">
-        <v>15.89590717384414</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="K25" t="n">
-        <v>20.74594372277242</v>
+        <v>20.74594372277243</v>
       </c>
       <c r="L25" t="n">
-        <v>82.47875529922221</v>
+        <v>82.47875529922223</v>
       </c>
       <c r="M25" t="n">
         <v>157.9564726222215</v>
@@ -6166,31 +6166,31 @@
         <v>319.4411870795273</v>
       </c>
       <c r="Q25" t="n">
-        <v>319.4411870795273</v>
+        <v>252.1879277620848</v>
       </c>
       <c r="R25" t="n">
-        <v>319.4411870795273</v>
+        <v>252.1879277620848</v>
       </c>
       <c r="S25" t="n">
-        <v>319.4411870795273</v>
+        <v>252.1879277620848</v>
       </c>
       <c r="T25" t="n">
-        <v>319.4411870795273</v>
+        <v>184.832090101751</v>
       </c>
       <c r="U25" t="n">
-        <v>118.735288419879</v>
+        <v>184.832090101751</v>
       </c>
       <c r="V25" t="n">
-        <v>118.735288419879</v>
+        <v>184.832090101751</v>
       </c>
       <c r="W25" t="n">
-        <v>15.89590717384414</v>
+        <v>184.832090101751</v>
       </c>
       <c r="X25" t="n">
-        <v>15.89590717384414</v>
+        <v>184.832090101751</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.89590717384414</v>
+        <v>184.832090101751</v>
       </c>
     </row>
     <row r="26">
@@ -6209,40 +6209,40 @@
         <v>1048.638276977322</v>
       </c>
       <c r="E26" t="n">
-        <v>813.3571862203469</v>
+        <v>813.3571862203468</v>
       </c>
       <c r="F26" t="n">
-        <v>552.8784432720086</v>
+        <v>552.8784432720084</v>
       </c>
       <c r="G26" t="n">
-        <v>284.4144732357358</v>
+        <v>284.4144732357365</v>
       </c>
       <c r="H26" t="n">
-        <v>97.41066049483346</v>
+        <v>97.41066049483344</v>
       </c>
       <c r="I26" t="n">
         <v>55.6169964674375</v>
       </c>
       <c r="J26" t="n">
-        <v>235.1029331023913</v>
+        <v>235.1029331023909</v>
       </c>
       <c r="K26" t="n">
-        <v>551.2803454048152</v>
+        <v>551.2803454048147</v>
       </c>
       <c r="L26" t="n">
-        <v>960.3133146464273</v>
+        <v>960.3133146464269</v>
       </c>
       <c r="M26" t="n">
         <v>1415.424320284889</v>
       </c>
       <c r="N26" t="n">
-        <v>1860.880600751948</v>
+        <v>1860.880600751947</v>
       </c>
       <c r="O26" t="n">
         <v>2244.545302124367</v>
       </c>
       <c r="P26" t="n">
-        <v>2555.933796409426</v>
+        <v>2555.933796409425</v>
       </c>
       <c r="Q26" t="n">
         <v>2749.288476315058</v>
@@ -6260,10 +6260,10 @@
         <v>2556.352832550298</v>
       </c>
       <c r="V26" t="n">
-        <v>2375.797107047997</v>
+        <v>2375.797107047996</v>
       </c>
       <c r="W26" t="n">
-        <v>2173.535613619152</v>
+        <v>2173.535613619151</v>
       </c>
       <c r="X26" t="n">
         <v>1950.577017199341</v>
@@ -6330,10 +6330,10 @@
         <v>2001.950371853512</v>
       </c>
       <c r="S27" t="n">
-        <v>1984.273509194222</v>
+        <v>1886.234765969561</v>
       </c>
       <c r="T27" t="n">
-        <v>1933.729713023496</v>
+        <v>1835.690969798834</v>
       </c>
       <c r="U27" t="n">
         <v>1757.993049338885</v>
@@ -6361,19 +6361,19 @@
         <v>104.2490815640026</v>
       </c>
       <c r="C28" t="n">
-        <v>85.82006047736493</v>
+        <v>85.82006047736488</v>
       </c>
       <c r="D28" t="n">
-        <v>85.82006047736493</v>
+        <v>85.82006047736488</v>
       </c>
       <c r="E28" t="n">
-        <v>85.82006047736493</v>
+        <v>85.82006047736488</v>
       </c>
       <c r="F28" t="n">
-        <v>85.82006047736493</v>
+        <v>85.82006047736488</v>
       </c>
       <c r="G28" t="n">
-        <v>66.87557128953446</v>
+        <v>66.87557128953443</v>
       </c>
       <c r="H28" t="n">
         <v>55.6169964674375</v>
@@ -6382,52 +6382,52 @@
         <v>55.6169964674375</v>
       </c>
       <c r="J28" t="n">
-        <v>127.0709793341875</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="K28" t="n">
-        <v>279.4330852037437</v>
+        <v>207.9791023369937</v>
       </c>
       <c r="L28" t="n">
-        <v>488.6779661008214</v>
+        <v>269.7119139134435</v>
       </c>
       <c r="M28" t="n">
-        <v>564.1556834238207</v>
+        <v>345.1896312364428</v>
       </c>
       <c r="N28" t="n">
-        <v>643.2733257517253</v>
+        <v>424.3072735643475</v>
       </c>
       <c r="O28" t="n">
-        <v>700.3349784885397</v>
+        <v>578.8657806111004</v>
       </c>
       <c r="P28" t="n">
-        <v>751.6832693243155</v>
+        <v>751.683269324315</v>
       </c>
       <c r="Q28" t="n">
-        <v>833.280419187918</v>
+        <v>833.2804191879176</v>
       </c>
       <c r="R28" t="n">
-        <v>815.3240688659242</v>
+        <v>815.3240688659238</v>
       </c>
       <c r="S28" t="n">
-        <v>743.6682809692894</v>
+        <v>743.6682809692891</v>
       </c>
       <c r="T28" t="n">
-        <v>664.9366203819504</v>
+        <v>664.9366203819501</v>
       </c>
       <c r="U28" t="n">
-        <v>526.2455254722912</v>
+        <v>526.245525472291</v>
       </c>
       <c r="V28" t="n">
-        <v>422.0681991076735</v>
+        <v>422.0681991076734</v>
       </c>
       <c r="W28" t="n">
-        <v>283.1581909119822</v>
+        <v>283.158190911982</v>
       </c>
       <c r="X28" t="n">
-        <v>205.675801855234</v>
+        <v>205.6758018552339</v>
       </c>
       <c r="Y28" t="n">
-        <v>135.3903845529731</v>
+        <v>135.390384552973</v>
       </c>
     </row>
     <row r="29">
@@ -6437,58 +6437,58 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1474.852168841946</v>
+        <v>1474.852168841945</v>
       </c>
       <c r="C29" t="n">
         <v>1256.396813742803</v>
       </c>
       <c r="D29" t="n">
-        <v>1048.638276977322</v>
+        <v>1048.638276977321</v>
       </c>
       <c r="E29" t="n">
-        <v>813.3571862203468</v>
+        <v>813.3571862203464</v>
       </c>
       <c r="F29" t="n">
-        <v>552.8784432720086</v>
+        <v>552.8784432720082</v>
       </c>
       <c r="G29" t="n">
         <v>284.4144732357363</v>
       </c>
       <c r="H29" t="n">
-        <v>97.41066049483348</v>
+        <v>97.41066049483342</v>
       </c>
       <c r="I29" t="n">
-        <v>55.61699646743751</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="J29" t="n">
-        <v>235.1029331023913</v>
+        <v>235.1029331023914</v>
       </c>
       <c r="K29" t="n">
-        <v>551.2803454048152</v>
+        <v>551.2803454048153</v>
       </c>
       <c r="L29" t="n">
-        <v>960.3133146464273</v>
+        <v>960.3133146464276</v>
       </c>
       <c r="M29" t="n">
-        <v>1415.424320284889</v>
+        <v>1415.42432028489</v>
       </c>
       <c r="N29" t="n">
-        <v>1860.880600751948</v>
+        <v>1860.880600751947</v>
       </c>
       <c r="O29" t="n">
         <v>2244.545302124367</v>
       </c>
       <c r="P29" t="n">
-        <v>2555.933796409426</v>
+        <v>2555.933796409425</v>
       </c>
       <c r="Q29" t="n">
         <v>2749.288476315058</v>
       </c>
       <c r="R29" t="n">
-        <v>2780.849823371876</v>
+        <v>2780.849823371875</v>
       </c>
       <c r="S29" t="n">
-        <v>2732.225106987913</v>
+        <v>2732.225106987912</v>
       </c>
       <c r="T29" t="n">
         <v>2659.688041972995</v>
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>538.2418904152713</v>
+        <v>867.9381676750312</v>
       </c>
       <c r="C30" t="n">
-        <v>363.7888611341443</v>
+        <v>693.4851383939042</v>
       </c>
       <c r="D30" t="n">
-        <v>214.854451472893</v>
+        <v>544.5507287326529</v>
       </c>
       <c r="E30" t="n">
-        <v>55.61699646743751</v>
+        <v>385.3132737271974</v>
       </c>
       <c r="F30" t="n">
-        <v>55.61699646743751</v>
+        <v>385.3132737271974</v>
       </c>
       <c r="G30" t="n">
-        <v>55.61699646743751</v>
+        <v>246.8641949381766</v>
       </c>
       <c r="H30" t="n">
-        <v>55.61699646743751</v>
+        <v>136.2161386249525</v>
       </c>
       <c r="I30" t="n">
-        <v>55.61699646743751</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="J30" t="n">
         <v>80.96703311392727</v>
@@ -6567,25 +6567,25 @@
         <v>2001.950371853512</v>
       </c>
       <c r="S30" t="n">
-        <v>1890.207369837716</v>
+        <v>1984.273509194222</v>
       </c>
       <c r="T30" t="n">
-        <v>1839.663573666989</v>
+        <v>1868.34552724421</v>
       </c>
       <c r="U30" t="n">
-        <v>1611.45849136577</v>
+        <v>1640.140444942992</v>
       </c>
       <c r="V30" t="n">
-        <v>1376.306383134028</v>
+        <v>1404.988336711249</v>
       </c>
       <c r="W30" t="n">
-        <v>1122.069026405826</v>
+        <v>1150.750979983048</v>
       </c>
       <c r="X30" t="n">
-        <v>914.2175262002932</v>
+        <v>942.8994797775147</v>
       </c>
       <c r="Y30" t="n">
-        <v>706.4572274353393</v>
+        <v>885.64634285383</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>104.2490815640026</v>
+        <v>104.2490815640025</v>
       </c>
       <c r="C31" t="n">
-        <v>85.82006047736493</v>
+        <v>85.82006047736481</v>
       </c>
       <c r="D31" t="n">
-        <v>85.82006047736493</v>
+        <v>85.82006047736481</v>
       </c>
       <c r="E31" t="n">
-        <v>85.82006047736493</v>
+        <v>85.82006047736481</v>
       </c>
       <c r="F31" t="n">
-        <v>85.82006047736493</v>
+        <v>85.82006047736481</v>
       </c>
       <c r="G31" t="n">
-        <v>66.87557128953446</v>
+        <v>66.87557128953439</v>
       </c>
       <c r="H31" t="n">
-        <v>55.61699646743751</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="I31" t="n">
-        <v>55.61699646743751</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="J31" t="n">
-        <v>127.0709793341875</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="K31" t="n">
-        <v>279.4330852037438</v>
+        <v>60.46703301636578</v>
       </c>
       <c r="L31" t="n">
-        <v>367.2087682233826</v>
+        <v>269.7119139134436</v>
       </c>
       <c r="M31" t="n">
-        <v>442.6864855463819</v>
+        <v>492.7017005570709</v>
       </c>
       <c r="N31" t="n">
-        <v>521.8041278742866</v>
+        <v>719.3314122056036</v>
       </c>
       <c r="O31" t="n">
-        <v>578.8657806111009</v>
+        <v>776.3930649424179</v>
       </c>
       <c r="P31" t="n">
-        <v>751.6832693243155</v>
+        <v>801.6984843350045</v>
       </c>
       <c r="Q31" t="n">
-        <v>833.280419187918</v>
+        <v>833.2804191879173</v>
       </c>
       <c r="R31" t="n">
-        <v>815.3240688659242</v>
+        <v>815.3240688659236</v>
       </c>
       <c r="S31" t="n">
-        <v>743.6682809692894</v>
+        <v>743.6682809692888</v>
       </c>
       <c r="T31" t="n">
-        <v>664.9366203819504</v>
+        <v>664.93662038195</v>
       </c>
       <c r="U31" t="n">
-        <v>526.2455254722912</v>
+        <v>526.2455254722909</v>
       </c>
       <c r="V31" t="n">
-        <v>422.0681991076735</v>
+        <v>422.0681991076732</v>
       </c>
       <c r="W31" t="n">
-        <v>283.1581909119822</v>
+        <v>283.1581909119818</v>
       </c>
       <c r="X31" t="n">
-        <v>205.675801855234</v>
+        <v>205.6758018552337</v>
       </c>
       <c r="Y31" t="n">
-        <v>135.3903845529731</v>
+        <v>135.3903845529729</v>
       </c>
     </row>
     <row r="32">
@@ -6683,19 +6683,19 @@
         <v>1048.638276977322</v>
       </c>
       <c r="E32" t="n">
-        <v>813.3571862203466</v>
+        <v>813.3571862203469</v>
       </c>
       <c r="F32" t="n">
-        <v>552.8784432720083</v>
+        <v>552.8784432720086</v>
       </c>
       <c r="G32" t="n">
-        <v>284.4144732357363</v>
+        <v>284.414473235736</v>
       </c>
       <c r="H32" t="n">
-        <v>97.41066049483348</v>
+        <v>97.41066049483344</v>
       </c>
       <c r="I32" t="n">
-        <v>55.61699646743751</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="J32" t="n">
         <v>235.1029331023914</v>
@@ -6707,25 +6707,25 @@
         <v>960.3133146464274</v>
       </c>
       <c r="M32" t="n">
-        <v>1415.42432028489</v>
+        <v>1415.424320284889</v>
       </c>
       <c r="N32" t="n">
-        <v>1860.880600751948</v>
+        <v>1860.880600751947</v>
       </c>
       <c r="O32" t="n">
         <v>2244.545302124367</v>
       </c>
       <c r="P32" t="n">
-        <v>2555.933796409426</v>
+        <v>2555.933796409425</v>
       </c>
       <c r="Q32" t="n">
         <v>2749.288476315058</v>
       </c>
       <c r="R32" t="n">
-        <v>2780.849823371876</v>
+        <v>2780.849823371875</v>
       </c>
       <c r="S32" t="n">
-        <v>2732.225106987913</v>
+        <v>2732.225106987912</v>
       </c>
       <c r="T32" t="n">
         <v>2659.688041972995</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>535.842038727135</v>
+        <v>782.8151916130473</v>
       </c>
       <c r="C33" t="n">
-        <v>361.389009446008</v>
+        <v>608.3621623319203</v>
       </c>
       <c r="D33" t="n">
-        <v>361.389009446008</v>
+        <v>459.4277526706691</v>
       </c>
       <c r="E33" t="n">
-        <v>202.1515544405525</v>
+        <v>300.1902976652136</v>
       </c>
       <c r="F33" t="n">
-        <v>55.61699646743751</v>
+        <v>153.6557396920985</v>
       </c>
       <c r="G33" t="n">
-        <v>55.61699646743751</v>
+        <v>153.6557396920985</v>
       </c>
       <c r="H33" t="n">
-        <v>55.61699646743751</v>
+        <v>136.2161386249525</v>
       </c>
       <c r="I33" t="n">
-        <v>55.61699646743751</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="J33" t="n">
         <v>80.96703311392727</v>
@@ -6804,25 +6804,25 @@
         <v>2001.950371853512</v>
       </c>
       <c r="S33" t="n">
-        <v>1887.807518149579</v>
+        <v>1984.273509194222</v>
       </c>
       <c r="T33" t="n">
-        <v>1686.756560137583</v>
+        <v>1933.729713023496</v>
       </c>
       <c r="U33" t="n">
-        <v>1609.058639677634</v>
+        <v>1856.031792563546</v>
       </c>
       <c r="V33" t="n">
-        <v>1373.906531445891</v>
+        <v>1620.879684331804</v>
       </c>
       <c r="W33" t="n">
-        <v>1119.66917471769</v>
+        <v>1366.642327603602</v>
       </c>
       <c r="X33" t="n">
-        <v>911.8176745121568</v>
+        <v>1158.790827398069</v>
       </c>
       <c r="Y33" t="n">
-        <v>704.057375747203</v>
+        <v>951.0305286331154</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>98.16140348555217</v>
+        <v>97.77865245295429</v>
       </c>
       <c r="C34" t="n">
-        <v>79.73238239891447</v>
+        <v>79.34963136631661</v>
       </c>
       <c r="D34" t="n">
-        <v>79.73238239891447</v>
+        <v>79.73238239891435</v>
       </c>
       <c r="E34" t="n">
-        <v>82.27482869943893</v>
+        <v>82.27482869943884</v>
       </c>
       <c r="F34" t="n">
-        <v>85.82006047736493</v>
+        <v>85.82006047736488</v>
       </c>
       <c r="G34" t="n">
-        <v>66.87557128953446</v>
+        <v>66.87557128953443</v>
       </c>
       <c r="H34" t="n">
-        <v>55.61699646743751</v>
+        <v>55.6169964674375</v>
       </c>
       <c r="I34" t="n">
-        <v>55.61699646743751</v>
+        <v>56.19512417614199</v>
       </c>
       <c r="J34" t="n">
-        <v>127.0709793341875</v>
+        <v>127.649107042892</v>
       </c>
       <c r="K34" t="n">
-        <v>131.9210158831158</v>
+        <v>280.0112129124483</v>
       </c>
       <c r="L34" t="n">
-        <v>213.609020824304</v>
+        <v>341.744024488898</v>
       </c>
       <c r="M34" t="n">
-        <v>289.0867381473033</v>
+        <v>564.7338111325253</v>
       </c>
       <c r="N34" t="n">
-        <v>368.204380475208</v>
+        <v>662.8457680838657</v>
       </c>
       <c r="O34" t="n">
-        <v>572.7781025326503</v>
+        <v>719.90742082068</v>
       </c>
       <c r="P34" t="n">
-        <v>745.5955912458649</v>
+        <v>745.2128402132666</v>
       </c>
       <c r="Q34" t="n">
-        <v>827.1927411094674</v>
+        <v>826.8099900768692</v>
       </c>
       <c r="R34" t="n">
-        <v>809.2363907874736</v>
+        <v>808.8536397548754</v>
       </c>
       <c r="S34" t="n">
-        <v>737.5806028908388</v>
+        <v>737.1978518582407</v>
       </c>
       <c r="T34" t="n">
-        <v>658.8489423034998</v>
+        <v>658.4661912709018</v>
       </c>
       <c r="U34" t="n">
-        <v>520.1578473938407</v>
+        <v>519.7750963612427</v>
       </c>
       <c r="V34" t="n">
-        <v>415.980521029223</v>
+        <v>415.5977699966251</v>
       </c>
       <c r="W34" t="n">
-        <v>277.0705128335317</v>
+        <v>276.6877618009337</v>
       </c>
       <c r="X34" t="n">
-        <v>199.5881237767836</v>
+        <v>199.2053727441856</v>
       </c>
       <c r="Y34" t="n">
-        <v>129.3027064745227</v>
+        <v>128.9199554419247</v>
       </c>
     </row>
     <row r="35">
@@ -6917,52 +6917,52 @@
         <v>933.9068305773303</v>
       </c>
       <c r="D35" t="n">
-        <v>779.1083762046954</v>
+        <v>779.1083762046956</v>
       </c>
       <c r="E35" t="n">
-        <v>596.7873678405668</v>
+        <v>596.787367840567</v>
       </c>
       <c r="F35" t="n">
-        <v>389.2687072850749</v>
+        <v>389.2687072850752</v>
       </c>
       <c r="G35" t="n">
         <v>173.7648196416495</v>
       </c>
       <c r="H35" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="I35" t="n">
-        <v>50.66529593357136</v>
+        <v>50.66529593357142</v>
       </c>
       <c r="J35" t="n">
-        <v>221.5676368274938</v>
+        <v>221.567636827494</v>
       </c>
       <c r="K35" t="n">
-        <v>390.2329798092897</v>
+        <v>589.6512258831467</v>
       </c>
       <c r="L35" t="n">
-        <v>651.7538797302739</v>
+        <v>851.1721258041309</v>
       </c>
       <c r="M35" t="n">
-        <v>959.3528160481079</v>
+        <v>1158.771062121965</v>
       </c>
       <c r="N35" t="n">
-        <v>1257.297027194538</v>
+        <v>1456.715273268396</v>
       </c>
       <c r="O35" t="n">
-        <v>1493.449659246329</v>
+        <v>1692.867905320187</v>
       </c>
       <c r="P35" t="n">
-        <v>1657.32608421076</v>
+        <v>1856.744330284617</v>
       </c>
       <c r="Q35" t="n">
         <v>1902.586940869621</v>
       </c>
       <c r="R35" t="n">
-        <v>1986.054464679667</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="S35" t="n">
-        <v>1986.054464679667</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="T35" t="n">
         <v>1966.477482057597</v>
@@ -6974,13 +6974,13 @@
         <v>1788.506711918291</v>
       </c>
       <c r="W35" t="n">
-        <v>1639.205300882293</v>
+        <v>1639.205300882292</v>
       </c>
       <c r="X35" t="n">
-        <v>1469.206786855329</v>
+        <v>1469.206786855328</v>
       </c>
       <c r="Y35" t="n">
-        <v>1282.534699113633</v>
+        <v>1282.534699113632</v>
       </c>
     </row>
     <row r="36">
@@ -6999,34 +6999,34 @@
         <v>675.1893795319238</v>
       </c>
       <c r="E36" t="n">
-        <v>515.9519245264682</v>
+        <v>515.9519245264684</v>
       </c>
       <c r="F36" t="n">
-        <v>369.4173665533532</v>
+        <v>369.4173665533533</v>
       </c>
       <c r="G36" t="n">
         <v>230.9682877643324</v>
       </c>
       <c r="H36" t="n">
-        <v>120.3202314511083</v>
+        <v>120.3202314511084</v>
       </c>
       <c r="I36" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="J36" t="n">
-        <v>65.07112594008312</v>
+        <v>65.07112594008322</v>
       </c>
       <c r="K36" t="n">
         <v>235.019219378175</v>
       </c>
       <c r="L36" t="n">
-        <v>524.939800189879</v>
+        <v>524.9398001898791</v>
       </c>
       <c r="M36" t="n">
-        <v>915.2426649670831</v>
+        <v>915.2426649670833</v>
       </c>
       <c r="N36" t="n">
-        <v>1331.582698579976</v>
+        <v>1331.582698579977</v>
       </c>
       <c r="O36" t="n">
         <v>1646.036812456933</v>
@@ -7035,31 +7035,31 @@
         <v>1881.410893930172</v>
       </c>
       <c r="Q36" t="n">
-        <v>1986.054464679667</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="R36" t="n">
         <v>1902.377940807625</v>
       </c>
       <c r="S36" t="n">
-        <v>1902.377940807625</v>
+        <v>1734.193916307067</v>
       </c>
       <c r="T36" t="n">
-        <v>1701.326982795628</v>
+        <v>1734.193916307067</v>
       </c>
       <c r="U36" t="n">
-        <v>1473.12190049441</v>
+        <v>1664.85893095657</v>
       </c>
       <c r="V36" t="n">
-        <v>1237.969792262667</v>
+        <v>1429.706822724827</v>
       </c>
       <c r="W36" t="n">
-        <v>1007.254128976557</v>
+        <v>1175.469465996625</v>
       </c>
       <c r="X36" t="n">
-        <v>1002.86987300514</v>
+        <v>1171.085210025208</v>
       </c>
       <c r="Y36" t="n">
-        <v>998.5768184743021</v>
+        <v>1166.79215549437</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="C37" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="D37" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="E37" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="F37" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="G37" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="H37" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="I37" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="J37" t="n">
-        <v>39.72108929359335</v>
+        <v>45.38891695093577</v>
       </c>
       <c r="K37" t="n">
-        <v>44.57112584252163</v>
+        <v>50.23895349986405</v>
       </c>
       <c r="L37" t="n">
-        <v>106.3039374189714</v>
+        <v>111.9717650763138</v>
       </c>
       <c r="M37" t="n">
-        <v>181.7816547419707</v>
+        <v>187.4494823993131</v>
       </c>
       <c r="N37" t="n">
-        <v>260.8992970698754</v>
+        <v>266.5671247272178</v>
       </c>
       <c r="O37" t="n">
-        <v>317.9609498066898</v>
+        <v>323.6287774640322</v>
       </c>
       <c r="P37" t="n">
-        <v>343.2663691992765</v>
+        <v>348.9341968566189</v>
       </c>
       <c r="Q37" t="n">
-        <v>343.2663691992765</v>
+        <v>348.9341968566189</v>
       </c>
       <c r="R37" t="n">
-        <v>348.9341968566193</v>
+        <v>348.9341968566189</v>
       </c>
       <c r="S37" t="n">
-        <v>330.238491352831</v>
+        <v>330.2384913528306</v>
       </c>
       <c r="T37" t="n">
-        <v>304.4669131583385</v>
+        <v>304.4669131583381</v>
       </c>
       <c r="U37" t="n">
-        <v>218.7359006415257</v>
+        <v>218.7359006415255</v>
       </c>
       <c r="V37" t="n">
-        <v>167.5186566697545</v>
+        <v>167.5186566697543</v>
       </c>
       <c r="W37" t="n">
-        <v>81.5687308669095</v>
+        <v>81.56873086690939</v>
       </c>
       <c r="X37" t="n">
-        <v>57.04642420300781</v>
+        <v>57.04642420300776</v>
       </c>
       <c r="Y37" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1099.402103283626</v>
+        <v>1099.402103283627</v>
       </c>
       <c r="C38" t="n">
-        <v>933.9068305773296</v>
+        <v>933.9068305773312</v>
       </c>
       <c r="D38" t="n">
-        <v>779.1083762046949</v>
+        <v>779.1083762046965</v>
       </c>
       <c r="E38" t="n">
-        <v>596.7873678405664</v>
+        <v>596.7873678405679</v>
       </c>
       <c r="F38" t="n">
-        <v>389.2687072850745</v>
+        <v>389.2687072850761</v>
       </c>
       <c r="G38" t="n">
         <v>173.7648196416495</v>
       </c>
       <c r="H38" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="I38" t="n">
-        <v>50.66529593357136</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="J38" t="n">
-        <v>282.057409321754</v>
+        <v>71.69495660791927</v>
       </c>
       <c r="K38" t="n">
-        <v>450.7227523035499</v>
+        <v>240.3602995897152</v>
       </c>
       <c r="L38" t="n">
-        <v>712.2436522245341</v>
+        <v>501.8811995106994</v>
       </c>
       <c r="M38" t="n">
-        <v>1019.842588542368</v>
+        <v>809.4801358285333</v>
       </c>
       <c r="N38" t="n">
-        <v>1317.786799688799</v>
+        <v>1107.424346974964</v>
       </c>
       <c r="O38" t="n">
-        <v>1553.939431740589</v>
+        <v>1542.995225100612</v>
       </c>
       <c r="P38" t="n">
-        <v>1717.81585670502</v>
+        <v>1906.289896138899</v>
       </c>
       <c r="Q38" t="n">
-        <v>1898.337848644315</v>
+        <v>1952.132506723904</v>
       </c>
       <c r="R38" t="n">
         <v>1981.805372454361</v>
       </c>
       <c r="S38" t="n">
-        <v>1986.054464679667</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="T38" t="n">
-        <v>1966.477482057596</v>
+        <v>1966.477482057597</v>
       </c>
       <c r="U38" t="n">
-        <v>1916.102355027745</v>
+        <v>1916.102355027747</v>
       </c>
       <c r="V38" t="n">
-        <v>1788.50671191829</v>
+        <v>1788.506711918292</v>
       </c>
       <c r="W38" t="n">
-        <v>1639.205300882292</v>
+        <v>1639.205300882293</v>
       </c>
       <c r="X38" t="n">
-        <v>1469.206786855328</v>
+        <v>1469.206786855329</v>
       </c>
       <c r="Y38" t="n">
-        <v>1282.534699113632</v>
+        <v>1282.534699113633</v>
       </c>
     </row>
     <row r="39">
@@ -7227,40 +7227,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>603.4038562975361</v>
+        <v>509.6430862090866</v>
       </c>
       <c r="C39" t="n">
-        <v>428.9508270164091</v>
+        <v>335.1900569279596</v>
       </c>
       <c r="D39" t="n">
-        <v>428.9508270164091</v>
+        <v>186.2556472667084</v>
       </c>
       <c r="E39" t="n">
-        <v>269.7133720109536</v>
+        <v>186.2556472667084</v>
       </c>
       <c r="F39" t="n">
-        <v>230.9682877643324</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="G39" t="n">
-        <v>230.9682877643324</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="H39" t="n">
-        <v>120.3202314511083</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="I39" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="J39" t="n">
-        <v>65.07112594008322</v>
+        <v>65.07112594008312</v>
       </c>
       <c r="K39" t="n">
         <v>235.019219378175</v>
       </c>
       <c r="L39" t="n">
-        <v>524.9398001898792</v>
+        <v>524.939800189879</v>
       </c>
       <c r="M39" t="n">
-        <v>915.2426649670833</v>
+        <v>915.2426649670831</v>
       </c>
       <c r="N39" t="n">
         <v>1331.582698579976</v>
@@ -7284,19 +7284,19 @@
         <v>1533.14295829507</v>
       </c>
       <c r="U39" t="n">
-        <v>1304.937875993851</v>
+        <v>1379.39244292547</v>
       </c>
       <c r="V39" t="n">
-        <v>1069.785767762109</v>
+        <v>1347.707578927843</v>
       </c>
       <c r="W39" t="n">
-        <v>815.5484110339071</v>
+        <v>1093.470222199641</v>
       </c>
       <c r="X39" t="n">
-        <v>811.16415506249</v>
+        <v>885.6187219941085</v>
       </c>
       <c r="Y39" t="n">
-        <v>603.4038562975361</v>
+        <v>677.8584232291546</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="C40" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="D40" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="E40" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="F40" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="G40" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="H40" t="n">
-        <v>39.72108929359335</v>
+        <v>45.38891695093577</v>
       </c>
       <c r="I40" t="n">
-        <v>39.72108929359335</v>
+        <v>45.38891695093577</v>
       </c>
       <c r="J40" t="n">
-        <v>39.72108929359335</v>
+        <v>45.38891695093577</v>
       </c>
       <c r="K40" t="n">
-        <v>44.57112584252163</v>
+        <v>50.23895349986405</v>
       </c>
       <c r="L40" t="n">
-        <v>106.3039374189714</v>
+        <v>111.9717650763138</v>
       </c>
       <c r="M40" t="n">
-        <v>181.7816547419707</v>
+        <v>187.4494823993131</v>
       </c>
       <c r="N40" t="n">
-        <v>260.8992970698754</v>
+        <v>266.5671247272178</v>
       </c>
       <c r="O40" t="n">
-        <v>317.9609498066898</v>
+        <v>323.6287774640322</v>
       </c>
       <c r="P40" t="n">
-        <v>343.2663691992765</v>
+        <v>348.9341968566189</v>
       </c>
       <c r="Q40" t="n">
-        <v>343.2663691992765</v>
+        <v>348.9341968566189</v>
       </c>
       <c r="R40" t="n">
-        <v>348.9341968566193</v>
+        <v>348.9341968566189</v>
       </c>
       <c r="S40" t="n">
-        <v>330.238491352831</v>
+        <v>330.2384913528306</v>
       </c>
       <c r="T40" t="n">
-        <v>304.4669131583385</v>
+        <v>304.4669131583381</v>
       </c>
       <c r="U40" t="n">
-        <v>218.7359006415257</v>
+        <v>218.7359006415255</v>
       </c>
       <c r="V40" t="n">
-        <v>167.5186566697545</v>
+        <v>167.5186566697543</v>
       </c>
       <c r="W40" t="n">
-        <v>81.5687308669095</v>
+        <v>81.56873086690939</v>
       </c>
       <c r="X40" t="n">
-        <v>57.04642420300781</v>
+        <v>57.04642420300776</v>
       </c>
       <c r="Y40" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
     </row>
     <row r="41">
@@ -7388,64 +7388,64 @@
         <v>1099.402103283626</v>
       </c>
       <c r="C41" t="n">
-        <v>933.9068305773295</v>
+        <v>933.9068305773301</v>
       </c>
       <c r="D41" t="n">
-        <v>779.1083762046947</v>
+        <v>779.1083762046953</v>
       </c>
       <c r="E41" t="n">
-        <v>596.7873678405662</v>
+        <v>596.7873678405667</v>
       </c>
       <c r="F41" t="n">
-        <v>389.2687072850745</v>
+        <v>389.2687072850749</v>
       </c>
       <c r="G41" t="n">
         <v>173.7648196416495</v>
       </c>
       <c r="H41" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="I41" t="n">
-        <v>50.66529593357139</v>
+        <v>50.66529593357142</v>
       </c>
       <c r="J41" t="n">
-        <v>82.63916324789729</v>
+        <v>232.7872469856606</v>
       </c>
       <c r="K41" t="n">
-        <v>251.3045062296932</v>
+        <v>401.4525899674565</v>
       </c>
       <c r="L41" t="n">
-        <v>512.8254061506774</v>
+        <v>662.9734898884407</v>
       </c>
       <c r="M41" t="n">
-        <v>820.4243424685114</v>
+        <v>1154.521969896658</v>
       </c>
       <c r="N41" t="n">
-        <v>1311.972822476729</v>
+        <v>1452.466181043089</v>
       </c>
       <c r="O41" t="n">
-        <v>1548.12545452852</v>
+        <v>1688.61881309488</v>
       </c>
       <c r="P41" t="n">
-        <v>1911.420125566807</v>
+        <v>1852.49523805931</v>
       </c>
       <c r="Q41" t="n">
-        <v>1986.054464679667</v>
+        <v>1898.337848644315</v>
       </c>
       <c r="R41" t="n">
-        <v>1986.054464679667</v>
+        <v>1981.805372454361</v>
       </c>
       <c r="S41" t="n">
-        <v>1986.054464679667</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="T41" t="n">
-        <v>1966.477482057596</v>
+        <v>1966.477482057597</v>
       </c>
       <c r="U41" t="n">
-        <v>1916.102355027745</v>
+        <v>1916.102355027746</v>
       </c>
       <c r="V41" t="n">
-        <v>1788.50671191829</v>
+        <v>1788.506711918291</v>
       </c>
       <c r="W41" t="n">
         <v>1639.205300882292</v>
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>804.4235017900226</v>
+        <v>998.5768184743021</v>
       </c>
       <c r="C42" t="n">
-        <v>629.9704725088956</v>
+        <v>824.1237891931751</v>
       </c>
       <c r="D42" t="n">
-        <v>481.0360628476443</v>
+        <v>675.1893795319238</v>
       </c>
       <c r="E42" t="n">
-        <v>321.7986078421888</v>
+        <v>515.9519245264684</v>
       </c>
       <c r="F42" t="n">
-        <v>175.2640498690738</v>
+        <v>369.4173665533533</v>
       </c>
       <c r="G42" t="n">
-        <v>39.72108929359335</v>
+        <v>230.9682877643324</v>
       </c>
       <c r="H42" t="n">
-        <v>39.72108929359335</v>
+        <v>120.3202314511084</v>
       </c>
       <c r="I42" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="J42" t="n">
         <v>65.07112594008312</v>
@@ -7509,31 +7509,31 @@
         <v>1881.410893930172</v>
       </c>
       <c r="Q42" t="n">
-        <v>1986.054464679667</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="R42" t="n">
-        <v>1902.377940807625</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="S42" t="n">
-        <v>1902.377940807625</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="T42" t="n">
-        <v>1902.377940807625</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="U42" t="n">
-        <v>1674.172858506406</v>
+        <v>1868.326175190685</v>
       </c>
       <c r="V42" t="n">
-        <v>1439.020750274663</v>
+        <v>1633.174066958943</v>
       </c>
       <c r="W42" t="n">
-        <v>1184.783393546462</v>
+        <v>1378.936710230741</v>
       </c>
       <c r="X42" t="n">
-        <v>1180.399137575045</v>
+        <v>1374.552454259324</v>
       </c>
       <c r="Y42" t="n">
-        <v>972.6388388100906</v>
+        <v>1166.79215549437</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>39.72108929359335</v>
+        <v>45.38891695093577</v>
       </c>
       <c r="C43" t="n">
-        <v>39.72108929359335</v>
+        <v>45.38891695093577</v>
       </c>
       <c r="D43" t="n">
-        <v>39.72108929359335</v>
+        <v>45.38891695093577</v>
       </c>
       <c r="E43" t="n">
-        <v>45.38891695093594</v>
+        <v>45.38891695093577</v>
       </c>
       <c r="F43" t="n">
-        <v>45.38891695093594</v>
+        <v>45.38891695093577</v>
       </c>
       <c r="G43" t="n">
-        <v>45.38891695093594</v>
+        <v>45.38891695093577</v>
       </c>
       <c r="H43" t="n">
-        <v>45.38891695093594</v>
+        <v>45.38891695093577</v>
       </c>
       <c r="I43" t="n">
-        <v>45.38891695093594</v>
+        <v>45.38891695093577</v>
       </c>
       <c r="J43" t="n">
-        <v>45.38891695093594</v>
+        <v>45.38891695093577</v>
       </c>
       <c r="K43" t="n">
-        <v>50.23895349986422</v>
+        <v>50.23895349986405</v>
       </c>
       <c r="L43" t="n">
-        <v>111.971765076314</v>
+        <v>111.9717650763138</v>
       </c>
       <c r="M43" t="n">
-        <v>187.4494823993133</v>
+        <v>187.4494823993131</v>
       </c>
       <c r="N43" t="n">
-        <v>266.567124727218</v>
+        <v>266.5671247272178</v>
       </c>
       <c r="O43" t="n">
-        <v>323.6287774640324</v>
+        <v>323.6287774640322</v>
       </c>
       <c r="P43" t="n">
-        <v>348.9341968566191</v>
+        <v>348.9341968566189</v>
       </c>
       <c r="Q43" t="n">
-        <v>348.9341968566191</v>
+        <v>348.9341968566189</v>
       </c>
       <c r="R43" t="n">
-        <v>348.9341968566191</v>
+        <v>348.9341968566189</v>
       </c>
       <c r="S43" t="n">
-        <v>330.2384913528307</v>
+        <v>330.2384913528306</v>
       </c>
       <c r="T43" t="n">
-        <v>304.4669131583383</v>
+        <v>304.4669131583381</v>
       </c>
       <c r="U43" t="n">
-        <v>218.7359006415256</v>
+        <v>218.7359006415255</v>
       </c>
       <c r="V43" t="n">
-        <v>167.5186566697544</v>
+        <v>167.5186566697543</v>
       </c>
       <c r="W43" t="n">
-        <v>81.56873086690945</v>
+        <v>81.56873086690939</v>
       </c>
       <c r="X43" t="n">
-        <v>57.04642420300778</v>
+        <v>57.04642420300776</v>
       </c>
       <c r="Y43" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
     </row>
     <row r="44">
@@ -7625,13 +7625,13 @@
         <v>1099.402103283626</v>
       </c>
       <c r="C44" t="n">
-        <v>933.9068305773303</v>
+        <v>933.9068305773301</v>
       </c>
       <c r="D44" t="n">
-        <v>779.1083762046954</v>
+        <v>779.1083762046953</v>
       </c>
       <c r="E44" t="n">
-        <v>596.7873678405668</v>
+        <v>596.7873678405667</v>
       </c>
       <c r="F44" t="n">
         <v>389.2687072850749</v>
@@ -7640,58 +7640,58 @@
         <v>173.7648196416495</v>
       </c>
       <c r="H44" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="I44" t="n">
-        <v>50.66529593357139</v>
+        <v>50.66529593357142</v>
       </c>
       <c r="J44" t="n">
-        <v>282.0574093217541</v>
+        <v>82.63916324789733</v>
       </c>
       <c r="K44" t="n">
-        <v>450.72275230355</v>
+        <v>251.3045062296933</v>
       </c>
       <c r="L44" t="n">
-        <v>846.9230335788241</v>
+        <v>512.8254061506774</v>
       </c>
       <c r="M44" t="n">
-        <v>1154.521969896658</v>
+        <v>959.3528160481081</v>
       </c>
       <c r="N44" t="n">
-        <v>1452.466181043089</v>
+        <v>1257.297027194539</v>
       </c>
       <c r="O44" t="n">
-        <v>1688.61881309488</v>
+        <v>1493.44965924633</v>
       </c>
       <c r="P44" t="n">
-        <v>1852.49523805931</v>
+        <v>1856.744330284617</v>
       </c>
       <c r="Q44" t="n">
-        <v>1898.337848644315</v>
+        <v>1902.586940869621</v>
       </c>
       <c r="R44" t="n">
-        <v>1981.805372454361</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="S44" t="n">
-        <v>1986.054464679667</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="T44" t="n">
-        <v>1966.477482057596</v>
+        <v>1966.477482057597</v>
       </c>
       <c r="U44" t="n">
-        <v>1916.102355027745</v>
+        <v>1916.102355027746</v>
       </c>
       <c r="V44" t="n">
-        <v>1788.50671191829</v>
+        <v>1788.506711918291</v>
       </c>
       <c r="W44" t="n">
-        <v>1639.205300882293</v>
+        <v>1639.205300882292</v>
       </c>
       <c r="X44" t="n">
         <v>1469.206786855328</v>
       </c>
       <c r="Y44" t="n">
-        <v>1282.534699113633</v>
+        <v>1282.534699113632</v>
       </c>
     </row>
     <row r="45">
@@ -7701,43 +7701,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>522.3459832414271</v>
+        <v>575.0266540909302</v>
       </c>
       <c r="C45" t="n">
-        <v>347.8929539603001</v>
+        <v>575.0266540909302</v>
       </c>
       <c r="D45" t="n">
-        <v>198.9585442990489</v>
+        <v>426.0922444296789</v>
       </c>
       <c r="E45" t="n">
-        <v>39.72108929359335</v>
+        <v>266.8547894242234</v>
       </c>
       <c r="F45" t="n">
-        <v>39.72108929359335</v>
+        <v>120.3202314511084</v>
       </c>
       <c r="G45" t="n">
-        <v>39.72108929359335</v>
+        <v>120.3202314511084</v>
       </c>
       <c r="H45" t="n">
-        <v>39.72108929359335</v>
+        <v>120.3202314511084</v>
       </c>
       <c r="I45" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="J45" t="n">
-        <v>65.07112594008312</v>
+        <v>65.07112594008359</v>
       </c>
       <c r="K45" t="n">
-        <v>235.019219378175</v>
+        <v>235.0192193781754</v>
       </c>
       <c r="L45" t="n">
-        <v>524.939800189879</v>
+        <v>524.9398001898794</v>
       </c>
       <c r="M45" t="n">
-        <v>915.2426649670831</v>
+        <v>915.2426649670836</v>
       </c>
       <c r="N45" t="n">
-        <v>1331.582698579976</v>
+        <v>1331.582698579977</v>
       </c>
       <c r="O45" t="n">
         <v>1646.036812456933</v>
@@ -7746,31 +7746,31 @@
         <v>1881.410893930172</v>
       </c>
       <c r="Q45" t="n">
-        <v>1986.054464679667</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="R45" t="n">
-        <v>1986.054464679667</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="S45" t="n">
-        <v>1986.054464679667</v>
+        <v>1817.870440179109</v>
       </c>
       <c r="T45" t="n">
-        <v>1823.767666493145</v>
+        <v>1616.819482167113</v>
       </c>
       <c r="U45" t="n">
-        <v>1595.562584191926</v>
+        <v>1480.027918021361</v>
       </c>
       <c r="V45" t="n">
-        <v>1360.410475960183</v>
+        <v>1244.875809789618</v>
       </c>
       <c r="W45" t="n">
-        <v>1106.173119231982</v>
+        <v>990.6384530614168</v>
       </c>
       <c r="X45" t="n">
-        <v>898.3216190264491</v>
+        <v>782.786952855884</v>
       </c>
       <c r="Y45" t="n">
-        <v>690.5613202614952</v>
+        <v>575.0266540909302</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="C46" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="D46" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="E46" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="F46" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="G46" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="H46" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="I46" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="J46" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="K46" t="n">
-        <v>44.57112584252163</v>
+        <v>44.57112584252164</v>
       </c>
       <c r="L46" t="n">
         <v>106.3039374189714</v>
       </c>
       <c r="M46" t="n">
-        <v>187.4494823993133</v>
+        <v>181.7816547419707</v>
       </c>
       <c r="N46" t="n">
-        <v>266.567124727218</v>
+        <v>260.8992970698754</v>
       </c>
       <c r="O46" t="n">
-        <v>323.6287774640324</v>
+        <v>317.9609498066898</v>
       </c>
       <c r="P46" t="n">
-        <v>348.9341968566191</v>
+        <v>343.2663691992765</v>
       </c>
       <c r="Q46" t="n">
-        <v>348.9341968566191</v>
+        <v>343.2663691992765</v>
       </c>
       <c r="R46" t="n">
-        <v>348.9341968566191</v>
+        <v>348.9341968566189</v>
       </c>
       <c r="S46" t="n">
-        <v>330.2384913528307</v>
+        <v>330.2384913528306</v>
       </c>
       <c r="T46" t="n">
-        <v>304.4669131583383</v>
+        <v>304.4669131583381</v>
       </c>
       <c r="U46" t="n">
-        <v>218.7359006415256</v>
+        <v>218.7359006415255</v>
       </c>
       <c r="V46" t="n">
-        <v>167.5186566697544</v>
+        <v>167.5186566697543</v>
       </c>
       <c r="W46" t="n">
-        <v>81.56873086690945</v>
+        <v>81.56873086690939</v>
       </c>
       <c r="X46" t="n">
-        <v>57.04642420300778</v>
+        <v>57.04642420300776</v>
       </c>
       <c r="Y46" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359336</v>
       </c>
     </row>
   </sheetData>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>136.7997795010375</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>352.1975290507911</v>
+        <v>352.197529050791</v>
       </c>
       <c r="M11" t="n">
-        <v>337.5063768852441</v>
+        <v>138.8075372121921</v>
       </c>
       <c r="N11" t="n">
-        <v>136.393175779226</v>
+        <v>276.7910829353817</v>
       </c>
       <c r="O11" t="n">
-        <v>195.730836785678</v>
+        <v>340.9610087622709</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>156.2669657831689</v>
       </c>
       <c r="Q11" t="n">
-        <v>166.0093234023244</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,25 +8766,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>100.4849377176919</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>92.80049616602119</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>268.6618775031515</v>
+        <v>276.6901134495373</v>
       </c>
       <c r="M12" t="n">
-        <v>71.45974579322795</v>
+        <v>263.5583507236714</v>
       </c>
       <c r="N12" t="n">
-        <v>257.4957255187336</v>
+        <v>257.4957255187335</v>
       </c>
       <c r="O12" t="n">
-        <v>274.93074089225</v>
+        <v>76.23190121919792</v>
       </c>
       <c r="P12" t="n">
-        <v>279.4100108652726</v>
+        <v>80.71117119222058</v>
       </c>
       <c r="Q12" t="n">
         <v>104.3767112212073</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>136.7997795010375</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>153.7763792562193</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>352.1975290507911</v>
+        <v>153.4986893777391</v>
       </c>
       <c r="M14" t="n">
-        <v>337.5063768852441</v>
+        <v>138.8075372121921</v>
       </c>
       <c r="N14" t="n">
-        <v>335.092015452278</v>
+        <v>309.9581802201199</v>
       </c>
       <c r="O14" t="n">
-        <v>332.932772815885</v>
+        <v>340.9610087622709</v>
       </c>
       <c r="P14" t="n">
-        <v>156.2669657831689</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>166.0093234023244</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,25 +9003,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>100.4849377176919</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>92.80049616602119</v>
       </c>
       <c r="L15" t="n">
-        <v>276.6901134495374</v>
+        <v>276.6901134495373</v>
       </c>
       <c r="M15" t="n">
-        <v>71.45974579322795</v>
+        <v>236.5242518971769</v>
       </c>
       <c r="N15" t="n">
-        <v>249.4674895723476</v>
+        <v>257.4957255187335</v>
       </c>
       <c r="O15" t="n">
-        <v>274.93074089225</v>
+        <v>76.23190121919792</v>
       </c>
       <c r="P15" t="n">
-        <v>279.4100108652726</v>
+        <v>279.4100108652724</v>
       </c>
       <c r="Q15" t="n">
         <v>104.3767112212073</v>
@@ -9167,22 +9167,22 @@
         <v>153.7763792562193</v>
       </c>
       <c r="L17" t="n">
-        <v>352.1975290507911</v>
+        <v>352.197529050791</v>
       </c>
       <c r="M17" t="n">
-        <v>337.5063768852441</v>
+        <v>138.8075372121921</v>
       </c>
       <c r="N17" t="n">
-        <v>335.092015452278</v>
+        <v>313.9252095330497</v>
       </c>
       <c r="O17" t="n">
-        <v>332.932772815885</v>
+        <v>340.9610087622709</v>
       </c>
       <c r="P17" t="n">
-        <v>156.2669657831689</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>166.0093234023244</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,25 +9240,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>100.4849377176919</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>92.80049616602119</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>77.99127377648543</v>
       </c>
       <c r="M18" t="n">
-        <v>270.15858546628</v>
+        <v>270.1585854662798</v>
       </c>
       <c r="N18" t="n">
-        <v>257.4957255187336</v>
+        <v>250.895490776125</v>
       </c>
       <c r="O18" t="n">
-        <v>274.93074089225</v>
+        <v>274.9307408922498</v>
       </c>
       <c r="P18" t="n">
-        <v>271.3817749188865</v>
+        <v>80.71117119222058</v>
       </c>
       <c r="Q18" t="n">
         <v>104.3767112212073</v>
@@ -9398,22 +9398,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>136.7997795010375</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>153.7763792562193</v>
       </c>
       <c r="L20" t="n">
-        <v>352.1975290507911</v>
+        <v>311.8724574333688</v>
       </c>
       <c r="M20" t="n">
-        <v>337.5063768852441</v>
+        <v>337.506376885244</v>
       </c>
       <c r="N20" t="n">
-        <v>335.092015452278</v>
+        <v>335.0920154522778</v>
       </c>
       <c r="O20" t="n">
-        <v>332.932772815885</v>
+        <v>340.9610087622709</v>
       </c>
       <c r="P20" t="n">
         <v>156.2669657831689</v>
@@ -9483,22 +9483,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>276.6901134495374</v>
+        <v>276.6901134495373</v>
       </c>
       <c r="M21" t="n">
-        <v>71.45974579322795</v>
+        <v>270.1585854662798</v>
       </c>
       <c r="N21" t="n">
-        <v>58.79688584568157</v>
+        <v>250.895490776125</v>
       </c>
       <c r="O21" t="n">
-        <v>162.6299296349999</v>
+        <v>76.23190121919792</v>
       </c>
       <c r="P21" t="n">
-        <v>279.4100108652726</v>
+        <v>80.71117119222058</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>104.3767112212073</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9635,25 +9635,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>136.7997795010375</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>153.7763792562193</v>
       </c>
       <c r="L23" t="n">
-        <v>352.1975290507909</v>
+        <v>352.197529050791</v>
       </c>
       <c r="M23" t="n">
-        <v>337.5063768852439</v>
+        <v>163.9463985505442</v>
       </c>
       <c r="N23" t="n">
-        <v>136.393175779226</v>
+        <v>335.0920154522778</v>
       </c>
       <c r="O23" t="n">
-        <v>328.965743502955</v>
+        <v>340.9610087622709</v>
       </c>
       <c r="P23" t="n">
-        <v>156.2669657831689</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>166.0093234023244</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>100.4849377176919</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>92.80049616602119</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>268.6618775031512</v>
+        <v>276.6901134495373</v>
       </c>
       <c r="M24" t="n">
         <v>270.1585854662798</v>
       </c>
       <c r="N24" t="n">
-        <v>257.4957255187334</v>
+        <v>58.79688584568157</v>
       </c>
       <c r="O24" t="n">
-        <v>274.9307408922497</v>
+        <v>162.6299296349996</v>
       </c>
       <c r="P24" t="n">
         <v>80.71117119222058</v>
       </c>
       <c r="Q24" t="n">
-        <v>104.3767112212073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10680,7 +10680,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399371</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>210.0772877358494</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>126.0910353404093</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -23258,7 +23258,7 @@
         <v>204.1025192117104</v>
       </c>
       <c r="C11" t="n">
-        <v>66.81795615355759</v>
+        <v>146.6515919576633</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>228.2447232899413</v>
       </c>
       <c r="G11" t="n">
-        <v>236.1500981069956</v>
+        <v>37.45125843394374</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>11.74649515820838</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>18.50923699120981</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>42.18246213585462</v>
+        <v>42.18246213585459</v>
       </c>
       <c r="U11" t="n">
-        <v>72.67262509955683</v>
+        <v>72.6726250995568</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>149.1209360183647</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>191.0997782266989</v>
       </c>
       <c r="Y11" t="n">
-        <v>207.6066162042835</v>
+        <v>207.6066162042834</v>
       </c>
     </row>
     <row r="12">
@@ -23504,16 +23504,16 @@
         <v>203.2990476204916</v>
       </c>
       <c r="F14" t="n">
-        <v>29.54588361688928</v>
+        <v>228.2447232899413</v>
       </c>
       <c r="G14" t="n">
-        <v>140.4055617151895</v>
+        <v>236.1500981069956</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>155.5045423845799</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>7.789804380557932</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>18.50923699120981</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>42.18246213585462</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>149.1209360183648</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>170.6096462656429</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>191.0997782266989</v>
       </c>
       <c r="Y14" t="n">
-        <v>207.6066162042835</v>
+        <v>8.907776531231605</v>
       </c>
     </row>
     <row r="15">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.041770939140364e-12</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -25925,13 +25925,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
     </row>
     <row r="45">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>512047.7116981491</v>
+        <v>512047.711698149</v>
       </c>
       <c r="C2" t="n">
-        <v>512047.7116981491</v>
+        <v>512047.711698149</v>
       </c>
       <c r="D2" t="n">
-        <v>512047.711698149</v>
+        <v>512047.7116981489</v>
       </c>
       <c r="E2" t="n">
         <v>439400.1361448013</v>
       </c>
       <c r="F2" t="n">
-        <v>439400.1361448012</v>
+        <v>439400.1361448014</v>
       </c>
       <c r="G2" t="n">
         <v>513151.1061651771</v>
       </c>
       <c r="H2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.106165177</v>
       </c>
       <c r="I2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="J2" t="n">
-        <v>513151.1061651774</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="K2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="L2" t="n">
         <v>513151.1061651772</v>
       </c>
       <c r="M2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="N2" t="n">
         <v>513151.1061651772</v>
       </c>
       <c r="O2" t="n">
-        <v>513151.1061651773</v>
+        <v>513151.106165177</v>
       </c>
       <c r="P2" t="n">
-        <v>513151.1061651773</v>
+        <v>513151.1061651769</v>
       </c>
     </row>
     <row r="3">
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>97259.69009554037</v>
+        <v>97259.69009554035</v>
       </c>
       <c r="M3" t="n">
-        <v>41944.38525513437</v>
+        <v>41944.3852551344</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>21941.98208274486</v>
+        <v>21941.98208274488</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26433,16 +26433,16 @@
         <v>407016.1489321863</v>
       </c>
       <c r="H4" t="n">
-        <v>407016.1489321863</v>
+        <v>407016.1489321864</v>
       </c>
       <c r="I4" t="n">
-        <v>407016.1489321863</v>
+        <v>407016.1489321864</v>
       </c>
       <c r="J4" t="n">
         <v>402100.501383587</v>
       </c>
       <c r="K4" t="n">
-        <v>402100.501383587</v>
+        <v>402100.5013835871</v>
       </c>
       <c r="L4" t="n">
         <v>402100.501383587</v>
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>29925.21762447104</v>
+        <v>29925.21762447103</v>
       </c>
       <c r="F5" t="n">
-        <v>29925.21762447104</v>
+        <v>29925.21762447103</v>
       </c>
       <c r="G5" t="n">
         <v>40145.87373277351</v>
@@ -26488,7 +26488,7 @@
         <v>40145.87373277351</v>
       </c>
       <c r="I5" t="n">
-        <v>40145.8737327735</v>
+        <v>40145.87373277351</v>
       </c>
       <c r="J5" t="n">
         <v>57622.34556334944</v>
@@ -26497,19 +26497,19 @@
         <v>57622.34556334945</v>
       </c>
       <c r="L5" t="n">
-        <v>57622.34556334945</v>
+        <v>57622.34556334944</v>
       </c>
       <c r="M5" t="n">
-        <v>49949.23426624524</v>
+        <v>49949.23426624526</v>
       </c>
       <c r="N5" t="n">
-        <v>49949.23426624524</v>
+        <v>49949.23426624526</v>
       </c>
       <c r="O5" t="n">
-        <v>49949.23426624525</v>
+        <v>49949.23426624526</v>
       </c>
       <c r="P5" t="n">
-        <v>49949.23426624525</v>
+        <v>49949.23426624526</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26020.12114918393</v>
+        <v>26015.70757131576</v>
       </c>
       <c r="C6" t="n">
-        <v>26020.12114918393</v>
+        <v>26015.7075713157</v>
       </c>
       <c r="D6" t="n">
-        <v>26020.12114918387</v>
+        <v>26015.70757131564</v>
       </c>
       <c r="E6" t="n">
-        <v>-236657.7567912579</v>
+        <v>-236952.7606713393</v>
       </c>
       <c r="F6" t="n">
-        <v>69757.77048817715</v>
+        <v>69462.76660809589</v>
       </c>
       <c r="G6" t="n">
-        <v>-31270.60659532306</v>
+        <v>-31270.60659532311</v>
       </c>
       <c r="H6" t="n">
-        <v>65989.08350021708</v>
+        <v>65989.08350021709</v>
       </c>
       <c r="I6" t="n">
-        <v>65989.08350021721</v>
+        <v>65989.08350021733</v>
       </c>
       <c r="J6" t="n">
-        <v>-98423.53145366564</v>
+        <v>-98423.53145366604</v>
       </c>
       <c r="K6" t="n">
-        <v>53428.25921824078</v>
+        <v>53428.25921824055</v>
       </c>
       <c r="L6" t="n">
         <v>-43831.43087729964</v>
       </c>
       <c r="M6" t="n">
-        <v>20108.27870554876</v>
+        <v>20108.27870554903</v>
       </c>
       <c r="N6" t="n">
-        <v>62052.66396068354</v>
+        <v>62052.66396068341</v>
       </c>
       <c r="O6" t="n">
-        <v>40110.6818779387</v>
+        <v>40110.68187793829</v>
       </c>
       <c r="P6" t="n">
-        <v>62052.66396068353</v>
+        <v>62052.66396068312</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>178.6313224517701</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="F2" t="n">
         <v>178.6313224517701</v>
@@ -26710,7 +26710,7 @@
         <v>149.0020902228565</v>
       </c>
       <c r="K2" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="L2" t="n">
         <v>149.0020902228565</v>
@@ -26796,28 +26796,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>198.698839673052</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="F4" t="n">
-        <v>198.698839673052</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="G4" t="n">
-        <v>198.698839673052</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="H4" t="n">
-        <v>198.698839673052</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="I4" t="n">
-        <v>198.6988396730518</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="J4" t="n">
         <v>695.2124558429688</v>
       </c>
       <c r="K4" t="n">
-        <v>695.2124558429689</v>
+        <v>695.2124558429688</v>
       </c>
       <c r="L4" t="n">
-        <v>695.2124558429689</v>
+        <v>695.2124558429688</v>
       </c>
       <c r="M4" t="n">
         <v>496.5136161699169</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>178.6313224517701</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>27.42747760343104</v>
+        <v>27.4274776034311</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>121.5746126194255</v>
+        <v>121.5746126194254</v>
       </c>
       <c r="M2" t="n">
-        <v>52.43048156891797</v>
+        <v>52.430481568918</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.42747760343107</v>
+        <v>27.4274776034311</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>198.698839673052</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>496.513616169917</v>
+        <v>496.5136161699169</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>178.6313224517701</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.42747760343104</v>
+        <v>27.4274776034311</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>198.698839673052</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.6313224517701</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="C11" t="n">
-        <v>178.6313224517701</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="D11" t="n">
-        <v>178.6313224517701</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="E11" t="n">
-        <v>178.6313224517701</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="F11" t="n">
-        <v>178.6313224517701</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="G11" t="n">
-        <v>178.6313224517701</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="H11" t="n">
-        <v>178.6313224517701</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="I11" t="n">
-        <v>178.6313224517701</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>117.1219416806167</v>
       </c>
       <c r="S11" t="n">
-        <v>178.6313224517701</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="T11" t="n">
-        <v>178.6313224517701</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="U11" t="n">
-        <v>178.6313224517701</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="V11" t="n">
-        <v>178.6313224517701</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="W11" t="n">
-        <v>178.6313224517701</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="X11" t="n">
-        <v>178.6313224517701</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.6313224517701</v>
+        <v>178.6313224517702</v>
       </c>
     </row>
     <row r="12">
@@ -28169,7 +28169,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -28178,7 +28178,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>96.75022048100394</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.0645880011306</v>
@@ -28187,7 +28187,7 @@
         <v>109.5415757500918</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>79.79315073593983</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.83975863332243</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T12" t="n">
-        <v>178.6313224517701</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="U12" t="n">
-        <v>178.6313224517701</v>
+        <v>27.22419180515453</v>
       </c>
       <c r="V12" t="n">
-        <v>34.10174747637325</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="W12" t="n">
-        <v>178.6313224517701</v>
+        <v>52.99614348786776</v>
       </c>
       <c r="X12" t="n">
-        <v>178.6313224517701</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.6313224517701</v>
+        <v>106.3984705380127</v>
       </c>
     </row>
     <row r="13">
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>178.6313224517701</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -28260,25 +28260,25 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.7571345188087</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="H13" t="n">
-        <v>160.1480792967325</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="I13" t="n">
         <v>148.4181228403268</v>
       </c>
       <c r="J13" t="n">
-        <v>76.82634995341206</v>
+        <v>105.2178869487126</v>
       </c>
       <c r="K13" t="n">
-        <v>47.34084264583004</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>122.4587211649719</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28290,31 +28290,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>66.58072672426806</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="R13" t="n">
         <v>166.7788770416304</v>
       </c>
       <c r="S13" t="n">
-        <v>178.6313224517701</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="T13" t="n">
-        <v>178.6313224517701</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="U13" t="n">
-        <v>178.6313224517701</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="V13" t="n">
-        <v>178.6313224517701</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="W13" t="n">
-        <v>178.6313224517701</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="X13" t="n">
-        <v>178.6313224517701</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.6313224517701</v>
+        <v>178.6313224517702</v>
       </c>
     </row>
     <row r="14">
@@ -28406,13 +28406,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>122.4099589470033</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -28421,7 +28421,7 @@
         <v>137.0645880011306</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.5415757500918</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28454,13 +28454,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T15" t="n">
         <v>178.6313224517701</v>
       </c>
       <c r="U15" t="n">
-        <v>178.6313224517701</v>
+        <v>27.22419180515454</v>
       </c>
       <c r="V15" t="n">
         <v>178.6313224517701</v>
@@ -28469,7 +28469,7 @@
         <v>178.6313224517701</v>
       </c>
       <c r="X15" t="n">
-        <v>95.32433131408514</v>
+        <v>178.6313224517701</v>
       </c>
       <c r="Y15" t="n">
         <v>178.6313224517701</v>
@@ -28506,28 +28506,28 @@
         <v>148.4181228403268</v>
       </c>
       <c r="J16" t="n">
+        <v>134.5753180367119</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>178.6313224517701</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>67.9945913124439</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>66.58072672426806</v>
       </c>
       <c r="R16" t="n">
         <v>166.7788770416304</v>
@@ -28643,25 +28643,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>71.92021132809452</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>65.59009320028584</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0645880011306</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5415757500918</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>79.79315073593983</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28694,7 +28694,7 @@
         <v>166.5021842555528</v>
       </c>
       <c r="T18" t="n">
-        <v>199.0404484318762</v>
+        <v>0.3416087588243102</v>
       </c>
       <c r="U18" t="n">
         <v>225.9230314782064</v>
@@ -28709,7 +28709,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.983856104252339</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -28776,16 +28776,16 @@
         <v>226.9464342043221</v>
       </c>
       <c r="U19" t="n">
-        <v>87.60743451036706</v>
+        <v>286.3062741834191</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>184.7120109030168</v>
+        <v>184.7120109030166</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>27.0108157159853</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -28883,7 +28883,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -28895,7 +28895,7 @@
         <v>137.0645880011306</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5415757500918</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28925,16 +28925,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>61.81362231472656</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T21" t="n">
-        <v>199.0404484318762</v>
+        <v>0.3416087588243215</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9230314782064</v>
+        <v>83.33097972283366</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -28943,7 +28943,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>7.074145530425454</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -29010,16 +29010,16 @@
         <v>219.9413202405249</v>
       </c>
       <c r="T22" t="n">
-        <v>226.9464342043221</v>
+        <v>28.24759453127021</v>
       </c>
       <c r="U22" t="n">
-        <v>87.60743451036706</v>
+        <v>286.3062741834191</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>150.3266558902536</v>
       </c>
       <c r="W22" t="n">
-        <v>184.7120109030168</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -29114,19 +29114,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.0645880011306</v>
@@ -29165,25 +29165,25 @@
         <v>82.83975863332243</v>
       </c>
       <c r="S24" t="n">
-        <v>53.13802853331516</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T24" t="n">
         <v>199.0404484318762</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9230314782064</v>
+        <v>50.90909349418237</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>52.99614348786776</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>7.074145530425625</v>
       </c>
       <c r="Y24" t="n">
-        <v>6.983856104252567</v>
+        <v>6.98385610425251</v>
       </c>
     </row>
     <row r="25">
@@ -29196,7 +29196,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.58072672426806</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>166.7788770416304</v>
@@ -29247,16 +29247,16 @@
         <v>219.9413202405249</v>
       </c>
       <c r="T25" t="n">
-        <v>226.9464342043221</v>
+        <v>160.2641549205917</v>
       </c>
       <c r="U25" t="n">
-        <v>87.60743451036728</v>
+        <v>286.3062741834191</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>184.7120109030165</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -29296,7 +29296,7 @@
         <v>149.0020902228565</v>
       </c>
       <c r="J26" t="n">
-        <v>149.0020902228565</v>
+        <v>149.002090222856</v>
       </c>
       <c r="K26" t="n">
         <v>149.0020902228565</v>
@@ -29320,7 +29320,7 @@
         <v>149.0020902228565</v>
       </c>
       <c r="R26" t="n">
-        <v>149.002090222856</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="S26" t="n">
         <v>149.0020902228565</v>
@@ -29402,13 +29402,13 @@
         <v>82.83975863332243</v>
       </c>
       <c r="S27" t="n">
-        <v>149.0020902228565</v>
+        <v>51.94373443044201</v>
       </c>
       <c r="T27" t="n">
         <v>149.0020902228565</v>
       </c>
       <c r="U27" t="n">
-        <v>51.94373443044205</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -29454,25 +29454,25 @@
         <v>148.4181228403268</v>
       </c>
       <c r="J28" t="n">
-        <v>149.0020902228565</v>
+        <v>76.82634995341206</v>
       </c>
       <c r="K28" t="n">
         <v>149.0020902228565</v>
       </c>
       <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>98.48167102013986</v>
+      </c>
+      <c r="P28" t="n">
         <v>149.0020902228565</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>26.30593075069607</v>
       </c>
       <c r="Q28" t="n">
         <v>149.0020902228565</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="C29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="D29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="E29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="F29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="G29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="H29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="I29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="J29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="K29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="L29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="M29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="N29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="O29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="P29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="Q29" t="n">
         <v>149.0020902228566</v>
       </c>
       <c r="R29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="S29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="T29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="U29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="V29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="W29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="X29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="Y29" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
     </row>
     <row r="30">
@@ -29588,7 +29588,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -29603,13 +29603,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0645880011306</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>109.5415757500918</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>79.79315073593983</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29639,10 +29639,10 @@
         <v>82.83975863332243</v>
       </c>
       <c r="S30" t="n">
-        <v>55.87661225991494</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="T30" t="n">
-        <v>149.0020902228565</v>
+        <v>84.27174630136425</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -29657,7 +29657,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>149.0020902228566</v>
       </c>
     </row>
     <row r="31">
@@ -29667,10 +29667,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="C31" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -29682,61 +29682,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="H31" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="I31" t="n">
         <v>148.4181228403268</v>
       </c>
       <c r="J31" t="n">
-        <v>149.0020902228565</v>
+        <v>76.82634995341206</v>
       </c>
       <c r="K31" t="n">
-        <v>149.0020902228565</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>26.30593075069602</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>149.0020902228565</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>149.0020902228565</v>
+        <v>98.48167102013959</v>
       </c>
       <c r="R31" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="S31" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="T31" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="U31" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="V31" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="W31" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="X31" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="Y31" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
     </row>
     <row r="32">
@@ -29779,7 +29779,7 @@
         <v>149.0020902228565</v>
       </c>
       <c r="M32" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228559</v>
       </c>
       <c r="N32" t="n">
         <v>149.0020902228565</v>
@@ -29831,7 +29831,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -29843,10 +29843,10 @@
         <v>137.0645880011306</v>
       </c>
       <c r="H33" t="n">
-        <v>109.5415757500918</v>
+        <v>92.27637069361724</v>
       </c>
       <c r="I33" t="n">
-        <v>79.79315073593983</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29876,10 +29876,10 @@
         <v>82.83975863332243</v>
       </c>
       <c r="S33" t="n">
-        <v>53.50075908865975</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="U33" t="n">
         <v>149.0020902228565</v>
@@ -29910,7 +29910,7 @@
         <v>149.0020902228565</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="E34" t="n">
         <v>149.0020902228565</v>
@@ -29925,28 +29925,28 @@
         <v>149.0020902228565</v>
       </c>
       <c r="I34" t="n">
-        <v>148.4181228403268</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="J34" t="n">
         <v>149.0020902228565</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="L34" t="n">
-        <v>20.15676097448328</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>19.18617638730885</v>
       </c>
       <c r="O34" t="n">
-        <v>149.0020902228565</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>149.0020902228565</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>149.0020902228565</v>
@@ -30007,10 +30007,10 @@
         <v>201.4325717917745</v>
       </c>
       <c r="J35" t="n">
-        <v>140.331791494542</v>
+        <v>140.3317914945421</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30028,7 +30028,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>201.4325717917745</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>201.4325717917745</v>
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -30113,19 +30113,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>166.5021842555528</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>199.0404484318762</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>157.2813959812144</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>23.28647650767124</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>201.4325717917745</v>
@@ -30165,7 +30165,7 @@
         <v>148.4181228403268</v>
       </c>
       <c r="J37" t="n">
-        <v>76.82634995341206</v>
+        <v>82.55142839517208</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>66.58072672426806</v>
       </c>
       <c r="R37" t="n">
-        <v>172.5039554833908</v>
+        <v>166.7788770416304</v>
       </c>
       <c r="S37" t="n">
         <v>201.4325717917745</v>
@@ -30241,34 +30241,34 @@
         <v>201.4325717917745</v>
       </c>
       <c r="I38" t="n">
+        <v>190.3778176099785</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>201.4325717917745</v>
       </c>
-      <c r="J38" t="n">
+      <c r="P38" t="n">
         <v>201.4325717917745</v>
       </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
       <c r="Q38" t="n">
-        <v>136.0397791457476</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>201.4325717917745</v>
+        <v>147.0945333275435</v>
       </c>
       <c r="S38" t="n">
         <v>201.4325717917745</v>
@@ -30299,28 +30299,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>106.7115789892289</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.0645880011306</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>109.5415757500918</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>79.79315073593983</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30356,16 +30356,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>73.71002126230221</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>201.4325717917745</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -30396,7 +30396,7 @@
         <v>167.7571345188087</v>
       </c>
       <c r="H40" t="n">
-        <v>160.1480792967325</v>
+        <v>165.8731577384925</v>
       </c>
       <c r="I40" t="n">
         <v>148.4181228403268</v>
@@ -30426,7 +30426,7 @@
         <v>66.58072672426806</v>
       </c>
       <c r="R40" t="n">
-        <v>172.5039554833908</v>
+        <v>166.7788770416304</v>
       </c>
       <c r="S40" t="n">
         <v>201.4325717917745</v>
@@ -30481,7 +30481,7 @@
         <v>201.4325717917745</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>151.6647310482457</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30490,25 +30490,25 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>185.8076198892766</v>
       </c>
       <c r="N41" t="n">
-        <v>195.5598675371587</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
         <v>201.4325717917745</v>
       </c>
-      <c r="Q41" t="n">
-        <v>29.08255406854096</v>
-      </c>
-      <c r="R41" t="n">
-        <v>117.1219416806167</v>
-      </c>
       <c r="S41" t="n">
-        <v>197.1405594429799</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="T41" t="n">
         <v>201.4325717917745</v>
@@ -30551,13 +30551,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.877057031404973</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109.5415757500918</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>79.79315073593983</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.83975863332243</v>
       </c>
       <c r="S42" t="n">
         <v>166.5021842555528</v>
@@ -30593,7 +30593,7 @@
         <v>199.0404484318762</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>109.3720248841138</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>185.5570586236973</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -30624,7 +30624,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>152.1590410883294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -30718,25 +30718,25 @@
         <v>201.4325717917745</v>
       </c>
       <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>140.3317914945421</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
         <v>201.4325717917745</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>136.0397791457473</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -30745,7 +30745,7 @@
         <v>201.4325717917745</v>
       </c>
       <c r="S44" t="n">
-        <v>201.4325717917745</v>
+        <v>197.1405594429799</v>
       </c>
       <c r="T44" t="n">
         <v>201.4325717917745</v>
@@ -30773,10 +30773,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -30785,7 +30785,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>137.0645880011306</v>
@@ -30794,7 +30794,7 @@
         <v>109.5415757500918</v>
       </c>
       <c r="I45" t="n">
-        <v>79.79315073593983</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30824,13 +30824,13 @@
         <v>82.83975863332243</v>
       </c>
       <c r="S45" t="n">
-        <v>166.5021842555528</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>38.37651822721872</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>90.49938297391182</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30885,7 +30885,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>5.725078441760189</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30900,7 +30900,7 @@
         <v>66.58072672426806</v>
       </c>
       <c r="R46" t="n">
-        <v>166.7788770416304</v>
+        <v>172.5039554833904</v>
       </c>
       <c r="S46" t="n">
         <v>201.4325717917745</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>32.29683567103626</v>
       </c>
       <c r="K11" t="n">
         <v>170.3690333149454</v>
       </c>
       <c r="L11" t="n">
-        <v>198.698839673052</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="M11" t="n">
-        <v>198.698839673052</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>140.3979071561558</v>
       </c>
       <c r="O11" t="n">
-        <v>53.46866769645894</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="P11" t="n">
-        <v>165.5317423883137</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>46.30566725758031</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>25.60609762271693</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>171.6647408465574</v>
       </c>
       <c r="L12" t="n">
-        <v>190.670603726666</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>192.0986049304434</v>
       </c>
       <c r="N12" t="n">
-        <v>198.698839673052</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="O12" t="n">
-        <v>198.698839673052</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>198.698839673052</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35556,25 +35556,25 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>10.87418793296148</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>18.48324315503767</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>28.39153699530051</v>
       </c>
       <c r="K13" t="n">
-        <v>52.23986946292931</v>
+        <v>4.899026817099273</v>
       </c>
       <c r="L13" t="n">
         <v>62.35637532974727</v>
       </c>
       <c r="M13" t="n">
-        <v>198.698839673052</v>
+        <v>76.24011850808009</v>
       </c>
       <c r="N13" t="n">
         <v>79.91681043222691</v>
@@ -35586,7 +35586,7 @@
         <v>25.56102968948145</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>112.0505957275021</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>32.29683567103626</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>170.3690333149454</v>
       </c>
       <c r="L14" t="n">
-        <v>198.698839673052</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>198.698839673052</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>198.698839673052</v>
+        <v>173.5650044408939</v>
       </c>
       <c r="O14" t="n">
-        <v>190.670603726666</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>165.5317423883137</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>46.30566725758031</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>25.60609762271693</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>198.698839673052</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>165.064506103949</v>
       </c>
       <c r="N15" t="n">
-        <v>190.670603726666</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="O15" t="n">
-        <v>198.698839673052</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>198.698839673052</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>101.8049724983581</v>
+        <v>57.74896808329983</v>
       </c>
       <c r="K16" t="n">
         <v>4.899026817099273</v>
       </c>
       <c r="L16" t="n">
-        <v>130.3509666421912</v>
+        <v>62.35637532974727</v>
       </c>
       <c r="M16" t="n">
         <v>76.24011850808009</v>
@@ -35823,7 +35823,7 @@
         <v>25.56102968948145</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>112.0505957275021</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,22 +35887,22 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>198.698839673052</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="M17" t="n">
-        <v>198.698839673052</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>198.698839673052</v>
+        <v>177.5320337538237</v>
       </c>
       <c r="O17" t="n">
-        <v>190.670603726666</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>165.5317423883137</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>46.30566725758031</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>25.60609762271693</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>171.6647408465574</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>198.698839673052</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="N18" t="n">
-        <v>198.698839673052</v>
+        <v>192.0986049304434</v>
       </c>
       <c r="O18" t="n">
-        <v>198.698839673052</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="P18" t="n">
-        <v>190.670603726666</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,22 +36118,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>32.29683567103626</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>198.698839673052</v>
+        <v>158.3737680556297</v>
       </c>
       <c r="M20" t="n">
-        <v>198.698839673052</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="N20" t="n">
-        <v>198.698839673052</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="O20" t="n">
-        <v>190.670603726666</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>171.6647408465574</v>
       </c>
       <c r="L21" t="n">
-        <v>198.698839673052</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>192.0986049304434</v>
       </c>
       <c r="O21" t="n">
-        <v>86.39802841580196</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>198.698839673052</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>105.7005765146418</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,25 +36355,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>32.29683567103626</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>170.3690333149454</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>198.6988396730518</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="M23" t="n">
-        <v>198.6988396730518</v>
+        <v>25.13886133835215</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="O23" t="n">
-        <v>186.703574413736</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>165.5317423883137</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>25.60609762271693</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>171.6647408465574</v>
       </c>
       <c r="L24" t="n">
-        <v>190.6706037266658</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="M24" t="n">
-        <v>198.6988396730518</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="N24" t="n">
-        <v>198.6988396730518</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>198.6988396730518</v>
+        <v>86.39802841580168</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>105.7005765146418</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>181.2989258938928</v>
+        <v>181.2989258938923</v>
       </c>
       <c r="K26" t="n">
         <v>319.3711235378019</v>
@@ -36610,13 +36610,13 @@
         <v>387.5401023963828</v>
       </c>
       <c r="P26" t="n">
-        <v>314.5338326111702</v>
+        <v>314.5338326111703</v>
       </c>
       <c r="Q26" t="n">
-        <v>195.3077574804368</v>
+        <v>195.3077574804369</v>
       </c>
       <c r="R26" t="n">
-        <v>31.88014854223928</v>
+        <v>31.88014854223982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>72.17574026944445</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>153.9011170399558</v>
       </c>
       <c r="L28" t="n">
-        <v>211.3584655526038</v>
+        <v>62.35637532974727</v>
       </c>
       <c r="M28" t="n">
         <v>76.24011850808009</v>
@@ -36765,13 +36765,13 @@
         <v>79.91681043222691</v>
       </c>
       <c r="O28" t="n">
-        <v>57.63803306748931</v>
+        <v>156.1197040876292</v>
       </c>
       <c r="P28" t="n">
-        <v>51.86696044017751</v>
+        <v>174.563119912338</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.42136349858845</v>
+        <v>82.42136349858848</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,10 +36832,10 @@
         <v>181.2989258938928</v>
       </c>
       <c r="K29" t="n">
-        <v>319.3711235378019</v>
+        <v>319.371123537802</v>
       </c>
       <c r="L29" t="n">
-        <v>413.1646153955678</v>
+        <v>413.1646153955679</v>
       </c>
       <c r="M29" t="n">
         <v>459.7080865034969</v>
@@ -36844,16 +36844,16 @@
         <v>449.9558388556147</v>
       </c>
       <c r="O29" t="n">
-        <v>387.5401023963828</v>
+        <v>387.5401023963829</v>
       </c>
       <c r="P29" t="n">
-        <v>314.5338326111702</v>
+        <v>314.5338326111703</v>
       </c>
       <c r="Q29" t="n">
         <v>195.3077574804369</v>
       </c>
       <c r="R29" t="n">
-        <v>31.88014854223979</v>
+        <v>31.88014854223985</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>72.17574026944445</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>153.9011170399558</v>
+        <v>4.899026817099273</v>
       </c>
       <c r="L31" t="n">
-        <v>88.66230608044329</v>
+        <v>211.3584655526038</v>
       </c>
       <c r="M31" t="n">
-        <v>76.24011850808009</v>
+        <v>225.2422087309367</v>
       </c>
       <c r="N31" t="n">
-        <v>79.91681043222691</v>
+        <v>228.9189006550835</v>
       </c>
       <c r="O31" t="n">
         <v>57.63803306748931</v>
       </c>
       <c r="P31" t="n">
-        <v>174.563119912338</v>
+        <v>25.56102968948145</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.42136349858845</v>
+        <v>31.90094429587153</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>413.1646153955678</v>
       </c>
       <c r="M32" t="n">
-        <v>459.7080865034969</v>
+        <v>459.7080865034964</v>
       </c>
       <c r="N32" t="n">
         <v>449.9558388556147</v>
@@ -37084,13 +37084,13 @@
         <v>387.5401023963828</v>
       </c>
       <c r="P32" t="n">
-        <v>314.5338326111702</v>
+        <v>314.5338326111703</v>
       </c>
       <c r="Q32" t="n">
-        <v>195.3077574804368</v>
+        <v>195.3077574804369</v>
       </c>
       <c r="R32" t="n">
-        <v>31.88014854223979</v>
+        <v>31.88014854223982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37206,13 +37206,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>0.3866172046441818</v>
       </c>
       <c r="E34" t="n">
-        <v>2.568127576287338</v>
+        <v>2.568127576287367</v>
       </c>
       <c r="F34" t="n">
-        <v>3.581042199925264</v>
+        <v>3.581042199925292</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37221,31 +37221,31 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.5839673825297806</v>
       </c>
       <c r="J34" t="n">
-        <v>72.17574026944445</v>
+        <v>72.17574026944447</v>
       </c>
       <c r="K34" t="n">
-        <v>4.899026817099273</v>
+        <v>153.9011170399558</v>
       </c>
       <c r="L34" t="n">
-        <v>82.51313630423054</v>
+        <v>62.35637532974727</v>
       </c>
       <c r="M34" t="n">
-        <v>76.24011850808009</v>
+        <v>225.2422087309366</v>
       </c>
       <c r="N34" t="n">
-        <v>79.91681043222691</v>
+        <v>99.10298681953576</v>
       </c>
       <c r="O34" t="n">
-        <v>206.6401232903458</v>
+        <v>57.63803306748931</v>
       </c>
       <c r="P34" t="n">
-        <v>174.563119912338</v>
+        <v>25.56102968948145</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.42136349858845</v>
+        <v>82.42136349858848</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,13 +37300,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>11.05475418179596</v>
+        <v>11.05475418179602</v>
       </c>
       <c r="J35" t="n">
-        <v>172.6286271655782</v>
+        <v>172.6286271655783</v>
       </c>
       <c r="K35" t="n">
-        <v>170.3690333149454</v>
+        <v>371.8016051067199</v>
       </c>
       <c r="L35" t="n">
         <v>264.1625251727113</v>
@@ -37324,10 +37324,10 @@
         <v>165.5317423883137</v>
       </c>
       <c r="Q35" t="n">
-        <v>247.7382390493548</v>
+        <v>46.30566725758031</v>
       </c>
       <c r="R35" t="n">
-        <v>84.31063011115776</v>
+        <v>84.31063011115782</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>317.6304180575316</v>
       </c>
       <c r="P36" t="n">
-        <v>237.7515974477165</v>
+        <v>237.7515974477166</v>
       </c>
       <c r="Q36" t="n">
         <v>105.7005765146418</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>5.725078441760014</v>
       </c>
       <c r="K37" t="n">
         <v>4.899026817099273</v>
@@ -37485,7 +37485,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>5.725078441760459</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37537,10 +37537,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>11.05475418179596</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>233.7294074628107</v>
+        <v>32.29683567103626</v>
       </c>
       <c r="K38" t="n">
         <v>170.3690333149454</v>
@@ -37555,19 +37555,19 @@
         <v>300.9537486327582</v>
       </c>
       <c r="O38" t="n">
-        <v>238.5380121735263</v>
+        <v>439.9705839653008</v>
       </c>
       <c r="P38" t="n">
-        <v>165.5317423883137</v>
+        <v>366.9643141800883</v>
       </c>
       <c r="Q38" t="n">
-        <v>182.3454464033279</v>
+        <v>46.30566725758031</v>
       </c>
       <c r="R38" t="n">
-        <v>84.31063011115776</v>
+        <v>29.97259164692676</v>
       </c>
       <c r="S38" t="n">
-        <v>4.292012348794536</v>
+        <v>4.292012348794593</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37692,7 +37692,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>5.725078441760014</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37722,7 +37722,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>5.725078441760459</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37774,10 +37774,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>11.05475418179599</v>
+        <v>11.05475418179602</v>
       </c>
       <c r="J41" t="n">
-        <v>32.29683567103626</v>
+        <v>183.961566719282</v>
       </c>
       <c r="K41" t="n">
         <v>170.3690333149454</v>
@@ -37786,25 +37786,25 @@
         <v>264.1625251727113</v>
       </c>
       <c r="M41" t="n">
-        <v>310.7059962806404</v>
+        <v>496.5136161699169</v>
       </c>
       <c r="N41" t="n">
-        <v>496.5136161699169</v>
+        <v>300.9537486327582</v>
       </c>
       <c r="O41" t="n">
         <v>238.5380121735263</v>
       </c>
       <c r="P41" t="n">
-        <v>366.9643141800882</v>
+        <v>165.5317423883137</v>
       </c>
       <c r="Q41" t="n">
-        <v>75.38822132612127</v>
+        <v>46.30566725758031</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>84.31063011115782</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>4.292012348794593</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>237.7515974477166</v>
       </c>
       <c r="Q42" t="n">
-        <v>105.7005765146418</v>
+        <v>105.7005765146421</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37911,7 +37911,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>5.725078441760014</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -37920,7 +37920,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>5.725078441760194</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -38011,19 +38011,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>11.05475418179599</v>
+        <v>11.05475418179602</v>
       </c>
       <c r="J44" t="n">
-        <v>233.7294074628108</v>
+        <v>32.29683567103626</v>
       </c>
       <c r="K44" t="n">
         <v>170.3690333149454</v>
       </c>
       <c r="L44" t="n">
-        <v>400.2023043184586</v>
+        <v>264.1625251727113</v>
       </c>
       <c r="M44" t="n">
-        <v>310.7059962806404</v>
+        <v>451.0377877751826</v>
       </c>
       <c r="N44" t="n">
         <v>300.9537486327582</v>
@@ -38032,16 +38032,16 @@
         <v>238.5380121735263</v>
       </c>
       <c r="P44" t="n">
-        <v>165.5317423883137</v>
+        <v>366.9643141800883</v>
       </c>
       <c r="Q44" t="n">
         <v>46.30566725758031</v>
       </c>
       <c r="R44" t="n">
-        <v>84.31063011115779</v>
+        <v>84.31063011115782</v>
       </c>
       <c r="S44" t="n">
-        <v>4.292012348794565</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>25.60609762271693</v>
+        <v>25.60609762271741</v>
       </c>
       <c r="K45" t="n">
         <v>171.6647408465574</v>
@@ -38181,7 +38181,7 @@
         <v>62.35637532974727</v>
       </c>
       <c r="M46" t="n">
-        <v>81.96519694984028</v>
+        <v>76.24011850808009</v>
       </c>
       <c r="N46" t="n">
         <v>79.91681043222691</v>
@@ -38196,7 +38196,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.72507844176</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
